--- a/Doc/m-planification-jnltrav-Mussa.xlsx
+++ b/Doc/m-planification-jnltrav-Mussa.xlsx
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="45">
   <si>
     <t>Module :</t>
   </si>
@@ -186,6 +186,12 @@
   </si>
   <si>
     <t>https://learn.microsoft.com/fr-fr/powershell/scripting/learn/remoting/running-remote-commands?view=powershell-5.1</t>
+  </si>
+  <si>
+    <t>Création de code pour trouver le nom de la machine actuelle, puis créeation de code pour créer un fichier log avec le nom de la machine et dans ce fichier log, on trouve la date.</t>
+  </si>
+  <si>
+    <t>Lire le chapitre Remoting, comprendre et tester de chercher les noms de machines par leur adresse ipv4.</t>
   </si>
 </sst>
 </file>
@@ -1009,7 +1015,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="127">
+  <cellXfs count="128">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1253,53 +1259,24 @@
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="14" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="14" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="16" fillId="6" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyProtection="1"/>
@@ -1322,6 +1299,39 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="16" fillId="6" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -2238,10 +2248,10 @@
     </row>
     <row r="19" spans="1:13" ht="21" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="79"/>
-      <c r="B19" s="88" t="s">
+      <c r="B19" s="116" t="s">
         <v>19</v>
       </c>
-      <c r="C19" s="89"/>
+      <c r="C19" s="117"/>
       <c r="D19" s="60"/>
       <c r="E19" s="60"/>
       <c r="F19" s="60"/>
@@ -3073,27 +3083,27 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="15365" r:id="rId5" name="btnCreateWorkSheet">
+        <control shapeId="15364" r:id="rId5" name="btnCreatePlanning">
           <controlPr defaultSize="0" autoLine="0" r:id="rId6">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
                 <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>8</xdr:row>
-                <xdr:rowOff>190500</xdr:rowOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>6</xdr:col>
-                <xdr:colOff>114300</xdr:colOff>
-                <xdr:row>10</xdr:row>
-                <xdr:rowOff>152400</xdr:rowOff>
+                <xdr:colOff>95250</xdr:colOff>
+                <xdr:row>7</xdr:row>
+                <xdr:rowOff>47625</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="15365" r:id="rId5" name="btnCreateWorkSheet"/>
+        <control shapeId="15364" r:id="rId5" name="btnCreatePlanning"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -3123,27 +3133,27 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="15364" r:id="rId9" name="btnCreatePlanning">
+        <control shapeId="15365" r:id="rId9" name="btnCreateWorkSheet">
           <controlPr defaultSize="0" autoLine="0" r:id="rId10">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
                 <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
+                <xdr:row>8</xdr:row>
+                <xdr:rowOff>190500</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>6</xdr:col>
-                <xdr:colOff>95250</xdr:colOff>
-                <xdr:row>7</xdr:row>
-                <xdr:rowOff>47625</xdr:rowOff>
+                <xdr:colOff>114300</xdr:colOff>
+                <xdr:row>10</xdr:row>
+                <xdr:rowOff>152400</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="15364" r:id="rId9" name="btnCreatePlanning"/>
+        <control shapeId="15365" r:id="rId9" name="btnCreateWorkSheet"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -3161,417 +3171,417 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="1.5703125" defaultRowHeight="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" style="92" customWidth="1"/>
-    <col min="2" max="2" width="51.28515625" style="92" customWidth="1"/>
-    <col min="3" max="3" width="19.42578125" style="92" customWidth="1"/>
-    <col min="4" max="16384" width="1.5703125" style="92"/>
+    <col min="1" max="1" width="17.85546875" style="88" customWidth="1"/>
+    <col min="2" max="2" width="51.28515625" style="88" customWidth="1"/>
+    <col min="3" max="3" width="19.42578125" style="88" customWidth="1"/>
+    <col min="4" max="16384" width="1.5703125" style="88"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:39" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="93"/>
-      <c r="C1" s="93"/>
+      <c r="B1" s="89"/>
+      <c r="C1" s="89"/>
     </row>
     <row r="2" spans="1:39" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="94"/>
+      <c r="A2" s="90"/>
       <c r="B2" s="23" t="s">
         <v>5</v>
       </c>
       <c r="C2" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="95" t="s">
+      <c r="D2" s="118" t="s">
         <v>31</v>
       </c>
-      <c r="E2" s="96"/>
-      <c r="F2" s="96"/>
-      <c r="G2" s="96"/>
-      <c r="H2" s="96"/>
-      <c r="I2" s="96"/>
-      <c r="J2" s="96"/>
-      <c r="K2" s="96"/>
-      <c r="L2" s="97"/>
-      <c r="M2" s="95" t="s">
+      <c r="E2" s="119"/>
+      <c r="F2" s="119"/>
+      <c r="G2" s="119"/>
+      <c r="H2" s="119"/>
+      <c r="I2" s="119"/>
+      <c r="J2" s="119"/>
+      <c r="K2" s="119"/>
+      <c r="L2" s="120"/>
+      <c r="M2" s="118" t="s">
         <v>32</v>
       </c>
-      <c r="N2" s="96"/>
-      <c r="O2" s="96"/>
-      <c r="P2" s="96"/>
-      <c r="Q2" s="96"/>
-      <c r="R2" s="96"/>
-      <c r="S2" s="96"/>
-      <c r="T2" s="96"/>
-      <c r="U2" s="97"/>
-      <c r="V2" s="95" t="s">
+      <c r="N2" s="119"/>
+      <c r="O2" s="119"/>
+      <c r="P2" s="119"/>
+      <c r="Q2" s="119"/>
+      <c r="R2" s="119"/>
+      <c r="S2" s="119"/>
+      <c r="T2" s="119"/>
+      <c r="U2" s="120"/>
+      <c r="V2" s="118" t="s">
         <v>33</v>
       </c>
-      <c r="W2" s="96"/>
-      <c r="X2" s="96"/>
-      <c r="Y2" s="96"/>
-      <c r="Z2" s="96"/>
-      <c r="AA2" s="96"/>
-      <c r="AB2" s="96"/>
-      <c r="AC2" s="96"/>
-      <c r="AD2" s="97"/>
-      <c r="AE2" s="95" t="s">
+      <c r="W2" s="119"/>
+      <c r="X2" s="119"/>
+      <c r="Y2" s="119"/>
+      <c r="Z2" s="119"/>
+      <c r="AA2" s="119"/>
+      <c r="AB2" s="119"/>
+      <c r="AC2" s="119"/>
+      <c r="AD2" s="120"/>
+      <c r="AE2" s="118" t="s">
         <v>34</v>
       </c>
-      <c r="AF2" s="96"/>
-      <c r="AG2" s="96"/>
-      <c r="AH2" s="96"/>
-      <c r="AI2" s="96"/>
-      <c r="AJ2" s="96"/>
-      <c r="AK2" s="96"/>
-      <c r="AL2" s="96"/>
-      <c r="AM2" s="97"/>
+      <c r="AF2" s="119"/>
+      <c r="AG2" s="119"/>
+      <c r="AH2" s="119"/>
+      <c r="AI2" s="119"/>
+      <c r="AJ2" s="119"/>
+      <c r="AK2" s="119"/>
+      <c r="AL2" s="119"/>
+      <c r="AM2" s="120"/>
     </row>
     <row r="3" spans="1:39" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="94"/>
-      <c r="B3" s="90" t="s">
+      <c r="A3" s="90"/>
+      <c r="B3" s="121" t="s">
         <v>21</v>
       </c>
       <c r="C3" s="16">
         <v>0</v>
       </c>
-      <c r="D3" s="98"/>
-      <c r="E3" s="99"/>
-      <c r="F3" s="100"/>
-      <c r="G3" s="101"/>
-      <c r="H3" s="99"/>
-      <c r="I3" s="100"/>
-      <c r="J3" s="101"/>
-      <c r="K3" s="99"/>
-      <c r="L3" s="102"/>
-      <c r="M3" s="98"/>
-      <c r="N3" s="99"/>
-      <c r="O3" s="100"/>
-      <c r="P3" s="101"/>
-      <c r="Q3" s="99"/>
-      <c r="R3" s="100"/>
-      <c r="S3" s="101"/>
-      <c r="T3" s="99"/>
-      <c r="U3" s="102"/>
-      <c r="V3" s="98"/>
-      <c r="W3" s="99"/>
-      <c r="X3" s="100"/>
-      <c r="Y3" s="101"/>
-      <c r="Z3" s="99"/>
-      <c r="AA3" s="100"/>
-      <c r="AB3" s="101"/>
-      <c r="AC3" s="99"/>
-      <c r="AD3" s="102"/>
-      <c r="AE3" s="98"/>
-      <c r="AF3" s="99"/>
-      <c r="AG3" s="100"/>
-      <c r="AH3" s="101"/>
-      <c r="AI3" s="99"/>
-      <c r="AJ3" s="100"/>
-      <c r="AK3" s="101"/>
-      <c r="AL3" s="99"/>
-      <c r="AM3" s="102"/>
+      <c r="D3" s="91"/>
+      <c r="E3" s="92"/>
+      <c r="F3" s="93"/>
+      <c r="G3" s="94"/>
+      <c r="H3" s="92"/>
+      <c r="I3" s="93"/>
+      <c r="J3" s="94"/>
+      <c r="K3" s="92"/>
+      <c r="L3" s="95"/>
+      <c r="M3" s="91"/>
+      <c r="N3" s="92"/>
+      <c r="O3" s="93"/>
+      <c r="P3" s="94"/>
+      <c r="Q3" s="92"/>
+      <c r="R3" s="93"/>
+      <c r="S3" s="94"/>
+      <c r="T3" s="92"/>
+      <c r="U3" s="95"/>
+      <c r="V3" s="91"/>
+      <c r="W3" s="92"/>
+      <c r="X3" s="93"/>
+      <c r="Y3" s="94"/>
+      <c r="Z3" s="92"/>
+      <c r="AA3" s="93"/>
+      <c r="AB3" s="94"/>
+      <c r="AC3" s="92"/>
+      <c r="AD3" s="95"/>
+      <c r="AE3" s="91"/>
+      <c r="AF3" s="92"/>
+      <c r="AG3" s="93"/>
+      <c r="AH3" s="94"/>
+      <c r="AI3" s="92"/>
+      <c r="AJ3" s="93"/>
+      <c r="AK3" s="94"/>
+      <c r="AL3" s="92"/>
+      <c r="AM3" s="95"/>
     </row>
     <row r="4" spans="1:39" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="94"/>
-      <c r="B4" s="103"/>
+      <c r="A4" s="90"/>
+      <c r="B4" s="122"/>
       <c r="C4" s="22">
         <v>0</v>
       </c>
-      <c r="D4" s="104"/>
-      <c r="E4" s="105"/>
-      <c r="F4" s="106"/>
-      <c r="G4" s="107"/>
-      <c r="H4" s="105"/>
-      <c r="I4" s="106"/>
-      <c r="J4" s="107"/>
-      <c r="K4" s="105"/>
-      <c r="L4" s="108"/>
-      <c r="M4" s="104"/>
-      <c r="N4" s="105"/>
-      <c r="O4" s="106"/>
-      <c r="P4" s="107"/>
-      <c r="Q4" s="105"/>
-      <c r="R4" s="106"/>
-      <c r="S4" s="107"/>
-      <c r="T4" s="105"/>
-      <c r="U4" s="108"/>
-      <c r="V4" s="104"/>
-      <c r="W4" s="105"/>
-      <c r="X4" s="106"/>
-      <c r="Y4" s="107"/>
-      <c r="Z4" s="105"/>
-      <c r="AA4" s="106"/>
-      <c r="AB4" s="107"/>
-      <c r="AC4" s="105"/>
-      <c r="AD4" s="108"/>
-      <c r="AE4" s="104"/>
-      <c r="AF4" s="105"/>
-      <c r="AG4" s="106"/>
-      <c r="AH4" s="107"/>
-      <c r="AI4" s="105"/>
-      <c r="AJ4" s="106"/>
-      <c r="AK4" s="107"/>
-      <c r="AL4" s="105"/>
-      <c r="AM4" s="108"/>
+      <c r="D4" s="96"/>
+      <c r="E4" s="97"/>
+      <c r="F4" s="98"/>
+      <c r="G4" s="99"/>
+      <c r="H4" s="97"/>
+      <c r="I4" s="98"/>
+      <c r="J4" s="99"/>
+      <c r="K4" s="97"/>
+      <c r="L4" s="100"/>
+      <c r="M4" s="96"/>
+      <c r="N4" s="97"/>
+      <c r="O4" s="98"/>
+      <c r="P4" s="99"/>
+      <c r="Q4" s="97"/>
+      <c r="R4" s="98"/>
+      <c r="S4" s="99"/>
+      <c r="T4" s="97"/>
+      <c r="U4" s="100"/>
+      <c r="V4" s="96"/>
+      <c r="W4" s="97"/>
+      <c r="X4" s="98"/>
+      <c r="Y4" s="99"/>
+      <c r="Z4" s="97"/>
+      <c r="AA4" s="98"/>
+      <c r="AB4" s="99"/>
+      <c r="AC4" s="97"/>
+      <c r="AD4" s="100"/>
+      <c r="AE4" s="96"/>
+      <c r="AF4" s="97"/>
+      <c r="AG4" s="98"/>
+      <c r="AH4" s="99"/>
+      <c r="AI4" s="97"/>
+      <c r="AJ4" s="98"/>
+      <c r="AK4" s="99"/>
+      <c r="AL4" s="97"/>
+      <c r="AM4" s="100"/>
     </row>
     <row r="5" spans="1:39" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="109" t="str">
+      <c r="B5" s="123" t="str">
         <f>Donnees!$C$21</f>
         <v>Powershell</v>
       </c>
-      <c r="C5" s="110">
+      <c r="C5" s="101">
         <v>0</v>
       </c>
-      <c r="D5" s="98"/>
-      <c r="E5" s="99"/>
-      <c r="F5" s="100"/>
-      <c r="G5" s="101"/>
-      <c r="H5" s="99"/>
-      <c r="I5" s="100"/>
-      <c r="J5" s="101"/>
-      <c r="K5" s="99"/>
-      <c r="L5" s="102"/>
-      <c r="M5" s="98"/>
-      <c r="N5" s="99"/>
-      <c r="O5" s="100"/>
-      <c r="P5" s="101"/>
-      <c r="Q5" s="99"/>
-      <c r="R5" s="100"/>
-      <c r="S5" s="101"/>
-      <c r="T5" s="99"/>
-      <c r="U5" s="102"/>
-      <c r="V5" s="98"/>
-      <c r="W5" s="99"/>
-      <c r="X5" s="100"/>
-      <c r="Y5" s="101"/>
-      <c r="Z5" s="99"/>
-      <c r="AA5" s="100"/>
-      <c r="AB5" s="101"/>
-      <c r="AC5" s="99"/>
-      <c r="AD5" s="102"/>
-      <c r="AE5" s="98"/>
-      <c r="AF5" s="99"/>
-      <c r="AG5" s="100"/>
-      <c r="AH5" s="101"/>
-      <c r="AI5" s="99"/>
-      <c r="AJ5" s="100"/>
-      <c r="AK5" s="101"/>
-      <c r="AL5" s="99"/>
-      <c r="AM5" s="102"/>
+      <c r="D5" s="91"/>
+      <c r="E5" s="92"/>
+      <c r="F5" s="93"/>
+      <c r="G5" s="94"/>
+      <c r="H5" s="92"/>
+      <c r="I5" s="93"/>
+      <c r="J5" s="94"/>
+      <c r="K5" s="92"/>
+      <c r="L5" s="95"/>
+      <c r="M5" s="91"/>
+      <c r="N5" s="92"/>
+      <c r="O5" s="93"/>
+      <c r="P5" s="94"/>
+      <c r="Q5" s="92"/>
+      <c r="R5" s="93"/>
+      <c r="S5" s="94"/>
+      <c r="T5" s="92"/>
+      <c r="U5" s="95"/>
+      <c r="V5" s="91"/>
+      <c r="W5" s="92"/>
+      <c r="X5" s="93"/>
+      <c r="Y5" s="94"/>
+      <c r="Z5" s="92"/>
+      <c r="AA5" s="93"/>
+      <c r="AB5" s="94"/>
+      <c r="AC5" s="92"/>
+      <c r="AD5" s="95"/>
+      <c r="AE5" s="91"/>
+      <c r="AF5" s="92"/>
+      <c r="AG5" s="93"/>
+      <c r="AH5" s="94"/>
+      <c r="AI5" s="92"/>
+      <c r="AJ5" s="93"/>
+      <c r="AK5" s="94"/>
+      <c r="AL5" s="92"/>
+      <c r="AM5" s="95"/>
     </row>
     <row r="6" spans="1:39" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="111"/>
-      <c r="C6" s="112">
+      <c r="B6" s="124"/>
+      <c r="C6" s="102">
         <v>0</v>
       </c>
-      <c r="D6" s="104"/>
-      <c r="E6" s="105"/>
-      <c r="F6" s="106"/>
-      <c r="G6" s="107"/>
-      <c r="H6" s="105"/>
-      <c r="I6" s="106"/>
-      <c r="J6" s="107"/>
-      <c r="K6" s="105"/>
-      <c r="L6" s="108"/>
-      <c r="M6" s="104"/>
-      <c r="N6" s="105"/>
-      <c r="O6" s="106"/>
-      <c r="P6" s="107"/>
-      <c r="Q6" s="105"/>
-      <c r="R6" s="106"/>
-      <c r="S6" s="107"/>
-      <c r="T6" s="105"/>
-      <c r="U6" s="108"/>
-      <c r="V6" s="104"/>
-      <c r="W6" s="105"/>
-      <c r="X6" s="106"/>
-      <c r="Y6" s="107"/>
-      <c r="Z6" s="105"/>
-      <c r="AA6" s="106"/>
-      <c r="AB6" s="107"/>
-      <c r="AC6" s="105"/>
-      <c r="AD6" s="108"/>
-      <c r="AE6" s="104"/>
-      <c r="AF6" s="105"/>
-      <c r="AG6" s="106"/>
-      <c r="AH6" s="107"/>
-      <c r="AI6" s="105"/>
-      <c r="AJ6" s="106"/>
-      <c r="AK6" s="107"/>
-      <c r="AL6" s="105"/>
-      <c r="AM6" s="108"/>
+      <c r="D6" s="96"/>
+      <c r="E6" s="97"/>
+      <c r="F6" s="98"/>
+      <c r="G6" s="99"/>
+      <c r="H6" s="97"/>
+      <c r="I6" s="98"/>
+      <c r="J6" s="99"/>
+      <c r="K6" s="97"/>
+      <c r="L6" s="100"/>
+      <c r="M6" s="96"/>
+      <c r="N6" s="97"/>
+      <c r="O6" s="98"/>
+      <c r="P6" s="99"/>
+      <c r="Q6" s="97"/>
+      <c r="R6" s="98"/>
+      <c r="S6" s="99"/>
+      <c r="T6" s="97"/>
+      <c r="U6" s="100"/>
+      <c r="V6" s="96"/>
+      <c r="W6" s="97"/>
+      <c r="X6" s="98"/>
+      <c r="Y6" s="99"/>
+      <c r="Z6" s="97"/>
+      <c r="AA6" s="98"/>
+      <c r="AB6" s="99"/>
+      <c r="AC6" s="97"/>
+      <c r="AD6" s="100"/>
+      <c r="AE6" s="96"/>
+      <c r="AF6" s="97"/>
+      <c r="AG6" s="98"/>
+      <c r="AH6" s="99"/>
+      <c r="AI6" s="97"/>
+      <c r="AJ6" s="98"/>
+      <c r="AK6" s="99"/>
+      <c r="AL6" s="97"/>
+      <c r="AM6" s="100"/>
     </row>
     <row r="7" spans="1:39" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="113" t="str">
+      <c r="B7" s="125" t="str">
         <f>Donnees!$C$22</f>
         <v>Journal De Travail</v>
       </c>
-      <c r="C7" s="110">
+      <c r="C7" s="101">
         <v>0</v>
       </c>
-      <c r="D7" s="98"/>
-      <c r="E7" s="99"/>
-      <c r="F7" s="100"/>
-      <c r="G7" s="101"/>
-      <c r="H7" s="99"/>
-      <c r="I7" s="100"/>
-      <c r="J7" s="101"/>
-      <c r="K7" s="99"/>
-      <c r="L7" s="102"/>
-      <c r="M7" s="98"/>
-      <c r="N7" s="99"/>
-      <c r="O7" s="100"/>
-      <c r="P7" s="101"/>
-      <c r="Q7" s="99"/>
-      <c r="R7" s="100"/>
-      <c r="S7" s="101"/>
-      <c r="T7" s="99"/>
-      <c r="U7" s="102"/>
-      <c r="V7" s="98"/>
-      <c r="W7" s="99"/>
-      <c r="X7" s="100"/>
-      <c r="Y7" s="101"/>
-      <c r="Z7" s="99"/>
-      <c r="AA7" s="100"/>
-      <c r="AB7" s="101"/>
-      <c r="AC7" s="99"/>
-      <c r="AD7" s="102"/>
-      <c r="AE7" s="98"/>
-      <c r="AF7" s="99"/>
-      <c r="AG7" s="100"/>
-      <c r="AH7" s="101"/>
-      <c r="AI7" s="99"/>
-      <c r="AJ7" s="100"/>
-      <c r="AK7" s="101"/>
-      <c r="AL7" s="99"/>
-      <c r="AM7" s="102"/>
+      <c r="D7" s="91"/>
+      <c r="E7" s="92"/>
+      <c r="F7" s="93"/>
+      <c r="G7" s="94"/>
+      <c r="H7" s="92"/>
+      <c r="I7" s="93"/>
+      <c r="J7" s="94"/>
+      <c r="K7" s="92"/>
+      <c r="L7" s="95"/>
+      <c r="M7" s="91"/>
+      <c r="N7" s="92"/>
+      <c r="O7" s="93"/>
+      <c r="P7" s="94"/>
+      <c r="Q7" s="92"/>
+      <c r="R7" s="93"/>
+      <c r="S7" s="94"/>
+      <c r="T7" s="92"/>
+      <c r="U7" s="95"/>
+      <c r="V7" s="91"/>
+      <c r="W7" s="92"/>
+      <c r="X7" s="93"/>
+      <c r="Y7" s="94"/>
+      <c r="Z7" s="92"/>
+      <c r="AA7" s="93"/>
+      <c r="AB7" s="94"/>
+      <c r="AC7" s="92"/>
+      <c r="AD7" s="95"/>
+      <c r="AE7" s="91"/>
+      <c r="AF7" s="92"/>
+      <c r="AG7" s="93"/>
+      <c r="AH7" s="94"/>
+      <c r="AI7" s="92"/>
+      <c r="AJ7" s="93"/>
+      <c r="AK7" s="94"/>
+      <c r="AL7" s="92"/>
+      <c r="AM7" s="95"/>
     </row>
     <row r="8" spans="1:39" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="111"/>
-      <c r="C8" s="112">
+      <c r="B8" s="124"/>
+      <c r="C8" s="102">
         <v>0</v>
       </c>
-      <c r="D8" s="104"/>
-      <c r="E8" s="105"/>
-      <c r="F8" s="106"/>
-      <c r="G8" s="107"/>
-      <c r="H8" s="105"/>
-      <c r="I8" s="106"/>
-      <c r="J8" s="107"/>
-      <c r="K8" s="105"/>
-      <c r="L8" s="108"/>
-      <c r="M8" s="104"/>
-      <c r="N8" s="105"/>
-      <c r="O8" s="106"/>
-      <c r="P8" s="107"/>
-      <c r="Q8" s="105"/>
-      <c r="R8" s="106"/>
-      <c r="S8" s="107"/>
-      <c r="T8" s="105"/>
-      <c r="U8" s="108"/>
-      <c r="V8" s="104"/>
-      <c r="W8" s="105"/>
-      <c r="X8" s="106"/>
-      <c r="Y8" s="107"/>
-      <c r="Z8" s="105"/>
-      <c r="AA8" s="106"/>
-      <c r="AB8" s="107"/>
-      <c r="AC8" s="105"/>
-      <c r="AD8" s="108"/>
-      <c r="AE8" s="104"/>
-      <c r="AF8" s="105"/>
-      <c r="AG8" s="106"/>
-      <c r="AH8" s="107"/>
-      <c r="AI8" s="105"/>
-      <c r="AJ8" s="106"/>
-      <c r="AK8" s="107"/>
-      <c r="AL8" s="105"/>
-      <c r="AM8" s="108"/>
+      <c r="D8" s="96"/>
+      <c r="E8" s="97"/>
+      <c r="F8" s="98"/>
+      <c r="G8" s="99"/>
+      <c r="H8" s="97"/>
+      <c r="I8" s="98"/>
+      <c r="J8" s="99"/>
+      <c r="K8" s="97"/>
+      <c r="L8" s="100"/>
+      <c r="M8" s="96"/>
+      <c r="N8" s="97"/>
+      <c r="O8" s="98"/>
+      <c r="P8" s="99"/>
+      <c r="Q8" s="97"/>
+      <c r="R8" s="98"/>
+      <c r="S8" s="99"/>
+      <c r="T8" s="97"/>
+      <c r="U8" s="100"/>
+      <c r="V8" s="96"/>
+      <c r="W8" s="97"/>
+      <c r="X8" s="98"/>
+      <c r="Y8" s="99"/>
+      <c r="Z8" s="97"/>
+      <c r="AA8" s="98"/>
+      <c r="AB8" s="99"/>
+      <c r="AC8" s="97"/>
+      <c r="AD8" s="100"/>
+      <c r="AE8" s="96"/>
+      <c r="AF8" s="97"/>
+      <c r="AG8" s="98"/>
+      <c r="AH8" s="99"/>
+      <c r="AI8" s="97"/>
+      <c r="AJ8" s="98"/>
+      <c r="AK8" s="99"/>
+      <c r="AL8" s="97"/>
+      <c r="AM8" s="100"/>
     </row>
     <row r="9" spans="1:39" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="113" t="str">
+      <c r="B9" s="125" t="str">
         <f>Donnees!$C$23</f>
         <v>Explication Prof</v>
       </c>
-      <c r="C9" s="110">
+      <c r="C9" s="101">
         <v>0</v>
       </c>
-      <c r="D9" s="98"/>
-      <c r="E9" s="99"/>
-      <c r="F9" s="100"/>
-      <c r="G9" s="101"/>
-      <c r="H9" s="99"/>
-      <c r="I9" s="100"/>
-      <c r="J9" s="101"/>
-      <c r="K9" s="99"/>
-      <c r="L9" s="102"/>
-      <c r="M9" s="98"/>
-      <c r="N9" s="99"/>
-      <c r="O9" s="100"/>
-      <c r="P9" s="101"/>
-      <c r="Q9" s="99"/>
-      <c r="R9" s="100"/>
-      <c r="S9" s="101"/>
-      <c r="T9" s="99"/>
-      <c r="U9" s="102"/>
-      <c r="V9" s="98"/>
-      <c r="W9" s="99"/>
-      <c r="X9" s="100"/>
-      <c r="Y9" s="101"/>
-      <c r="Z9" s="99"/>
-      <c r="AA9" s="100"/>
-      <c r="AB9" s="101"/>
-      <c r="AC9" s="99"/>
-      <c r="AD9" s="102"/>
-      <c r="AE9" s="98"/>
-      <c r="AF9" s="99"/>
-      <c r="AG9" s="100"/>
-      <c r="AH9" s="101"/>
-      <c r="AI9" s="99"/>
-      <c r="AJ9" s="100"/>
-      <c r="AK9" s="101"/>
-      <c r="AL9" s="99"/>
-      <c r="AM9" s="102"/>
+      <c r="D9" s="91"/>
+      <c r="E9" s="92"/>
+      <c r="F9" s="93"/>
+      <c r="G9" s="94"/>
+      <c r="H9" s="92"/>
+      <c r="I9" s="93"/>
+      <c r="J9" s="94"/>
+      <c r="K9" s="92"/>
+      <c r="L9" s="95"/>
+      <c r="M9" s="91"/>
+      <c r="N9" s="92"/>
+      <c r="O9" s="93"/>
+      <c r="P9" s="94"/>
+      <c r="Q9" s="92"/>
+      <c r="R9" s="93"/>
+      <c r="S9" s="94"/>
+      <c r="T9" s="92"/>
+      <c r="U9" s="95"/>
+      <c r="V9" s="91"/>
+      <c r="W9" s="92"/>
+      <c r="X9" s="93"/>
+      <c r="Y9" s="94"/>
+      <c r="Z9" s="92"/>
+      <c r="AA9" s="93"/>
+      <c r="AB9" s="94"/>
+      <c r="AC9" s="92"/>
+      <c r="AD9" s="95"/>
+      <c r="AE9" s="91"/>
+      <c r="AF9" s="92"/>
+      <c r="AG9" s="93"/>
+      <c r="AH9" s="94"/>
+      <c r="AI9" s="92"/>
+      <c r="AJ9" s="93"/>
+      <c r="AK9" s="94"/>
+      <c r="AL9" s="92"/>
+      <c r="AM9" s="95"/>
     </row>
     <row r="10" spans="1:39" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="111"/>
-      <c r="C10" s="112">
+      <c r="B10" s="124"/>
+      <c r="C10" s="102">
         <v>0</v>
       </c>
-      <c r="D10" s="104"/>
-      <c r="E10" s="105"/>
-      <c r="F10" s="106"/>
-      <c r="G10" s="107"/>
-      <c r="H10" s="105"/>
-      <c r="I10" s="106"/>
-      <c r="J10" s="107"/>
-      <c r="K10" s="105"/>
-      <c r="L10" s="108"/>
-      <c r="M10" s="104"/>
-      <c r="N10" s="105"/>
-      <c r="O10" s="106"/>
-      <c r="P10" s="107"/>
-      <c r="Q10" s="105"/>
-      <c r="R10" s="106"/>
-      <c r="S10" s="107"/>
-      <c r="T10" s="105"/>
-      <c r="U10" s="108"/>
-      <c r="V10" s="104"/>
-      <c r="W10" s="105"/>
-      <c r="X10" s="106"/>
-      <c r="Y10" s="107"/>
-      <c r="Z10" s="105"/>
-      <c r="AA10" s="106"/>
-      <c r="AB10" s="107"/>
-      <c r="AC10" s="105"/>
-      <c r="AD10" s="108"/>
-      <c r="AE10" s="104"/>
-      <c r="AF10" s="105"/>
-      <c r="AG10" s="106"/>
-      <c r="AH10" s="107"/>
-      <c r="AI10" s="105"/>
-      <c r="AJ10" s="106"/>
-      <c r="AK10" s="107"/>
-      <c r="AL10" s="105"/>
-      <c r="AM10" s="108"/>
+      <c r="D10" s="96"/>
+      <c r="E10" s="97"/>
+      <c r="F10" s="98"/>
+      <c r="G10" s="99"/>
+      <c r="H10" s="97"/>
+      <c r="I10" s="98"/>
+      <c r="J10" s="99"/>
+      <c r="K10" s="97"/>
+      <c r="L10" s="100"/>
+      <c r="M10" s="96"/>
+      <c r="N10" s="97"/>
+      <c r="O10" s="98"/>
+      <c r="P10" s="99"/>
+      <c r="Q10" s="97"/>
+      <c r="R10" s="98"/>
+      <c r="S10" s="99"/>
+      <c r="T10" s="97"/>
+      <c r="U10" s="100"/>
+      <c r="V10" s="96"/>
+      <c r="W10" s="97"/>
+      <c r="X10" s="98"/>
+      <c r="Y10" s="99"/>
+      <c r="Z10" s="97"/>
+      <c r="AA10" s="98"/>
+      <c r="AB10" s="99"/>
+      <c r="AC10" s="97"/>
+      <c r="AD10" s="100"/>
+      <c r="AE10" s="96"/>
+      <c r="AF10" s="97"/>
+      <c r="AG10" s="98"/>
+      <c r="AH10" s="99"/>
+      <c r="AI10" s="97"/>
+      <c r="AJ10" s="98"/>
+      <c r="AK10" s="99"/>
+      <c r="AL10" s="97"/>
+      <c r="AM10" s="100"/>
     </row>
     <row r="11" spans="1:39" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="25" t="s">
@@ -3581,42 +3591,42 @@
         <f>SUM($C$3,$C$5,$C$7,$C$9)</f>
         <v>0</v>
       </c>
-      <c r="D11" s="114"/>
-      <c r="E11" s="115"/>
-      <c r="F11" s="115"/>
-      <c r="G11" s="115"/>
-      <c r="H11" s="115"/>
-      <c r="I11" s="115"/>
-      <c r="J11" s="115"/>
-      <c r="K11" s="115"/>
-      <c r="L11" s="116"/>
-      <c r="M11" s="114"/>
-      <c r="N11" s="115"/>
-      <c r="O11" s="115"/>
-      <c r="P11" s="115"/>
-      <c r="Q11" s="115"/>
-      <c r="R11" s="115"/>
-      <c r="S11" s="115"/>
-      <c r="T11" s="115"/>
-      <c r="U11" s="116"/>
-      <c r="V11" s="114"/>
-      <c r="W11" s="115"/>
-      <c r="X11" s="115"/>
-      <c r="Y11" s="115"/>
-      <c r="Z11" s="115"/>
-      <c r="AA11" s="115"/>
-      <c r="AB11" s="115"/>
-      <c r="AC11" s="115"/>
-      <c r="AD11" s="116"/>
-      <c r="AE11" s="114"/>
-      <c r="AF11" s="115"/>
-      <c r="AG11" s="115"/>
-      <c r="AH11" s="115"/>
-      <c r="AI11" s="115"/>
-      <c r="AJ11" s="115"/>
-      <c r="AK11" s="115"/>
-      <c r="AL11" s="115"/>
-      <c r="AM11" s="116"/>
+      <c r="D11" s="103"/>
+      <c r="E11" s="104"/>
+      <c r="F11" s="104"/>
+      <c r="G11" s="104"/>
+      <c r="H11" s="104"/>
+      <c r="I11" s="104"/>
+      <c r="J11" s="104"/>
+      <c r="K11" s="104"/>
+      <c r="L11" s="105"/>
+      <c r="M11" s="103"/>
+      <c r="N11" s="104"/>
+      <c r="O11" s="104"/>
+      <c r="P11" s="104"/>
+      <c r="Q11" s="104"/>
+      <c r="R11" s="104"/>
+      <c r="S11" s="104"/>
+      <c r="T11" s="104"/>
+      <c r="U11" s="105"/>
+      <c r="V11" s="103"/>
+      <c r="W11" s="104"/>
+      <c r="X11" s="104"/>
+      <c r="Y11" s="104"/>
+      <c r="Z11" s="104"/>
+      <c r="AA11" s="104"/>
+      <c r="AB11" s="104"/>
+      <c r="AC11" s="104"/>
+      <c r="AD11" s="105"/>
+      <c r="AE11" s="103"/>
+      <c r="AF11" s="104"/>
+      <c r="AG11" s="104"/>
+      <c r="AH11" s="104"/>
+      <c r="AI11" s="104"/>
+      <c r="AJ11" s="104"/>
+      <c r="AK11" s="104"/>
+      <c r="AL11" s="104"/>
+      <c r="AM11" s="105"/>
     </row>
     <row r="12" spans="1:39" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="26" t="s">
@@ -3626,63 +3636,63 @@
         <f>SUM($C$4,$C$6,$C$8,$C$10)</f>
         <v>0</v>
       </c>
-      <c r="D12" s="117"/>
-      <c r="E12" s="118"/>
-      <c r="F12" s="118"/>
-      <c r="G12" s="118"/>
-      <c r="H12" s="118"/>
-      <c r="I12" s="118"/>
-      <c r="J12" s="118"/>
-      <c r="K12" s="118"/>
-      <c r="L12" s="119"/>
-      <c r="M12" s="117"/>
-      <c r="N12" s="118"/>
-      <c r="O12" s="118"/>
-      <c r="P12" s="118"/>
-      <c r="Q12" s="118"/>
-      <c r="R12" s="118"/>
-      <c r="S12" s="118"/>
-      <c r="T12" s="118"/>
-      <c r="U12" s="119"/>
-      <c r="V12" s="117"/>
-      <c r="W12" s="118"/>
-      <c r="X12" s="118"/>
-      <c r="Y12" s="118"/>
-      <c r="Z12" s="118"/>
-      <c r="AA12" s="118"/>
-      <c r="AB12" s="118"/>
-      <c r="AC12" s="118"/>
-      <c r="AD12" s="119"/>
-      <c r="AE12" s="117"/>
-      <c r="AF12" s="118"/>
-      <c r="AG12" s="118"/>
-      <c r="AH12" s="118"/>
-      <c r="AI12" s="118"/>
-      <c r="AJ12" s="118"/>
-      <c r="AK12" s="118"/>
-      <c r="AL12" s="118"/>
-      <c r="AM12" s="119"/>
+      <c r="D12" s="106"/>
+      <c r="E12" s="107"/>
+      <c r="F12" s="107"/>
+      <c r="G12" s="107"/>
+      <c r="H12" s="107"/>
+      <c r="I12" s="107"/>
+      <c r="J12" s="107"/>
+      <c r="K12" s="107"/>
+      <c r="L12" s="108"/>
+      <c r="M12" s="106"/>
+      <c r="N12" s="107"/>
+      <c r="O12" s="107"/>
+      <c r="P12" s="107"/>
+      <c r="Q12" s="107"/>
+      <c r="R12" s="107"/>
+      <c r="S12" s="107"/>
+      <c r="T12" s="107"/>
+      <c r="U12" s="108"/>
+      <c r="V12" s="106"/>
+      <c r="W12" s="107"/>
+      <c r="X12" s="107"/>
+      <c r="Y12" s="107"/>
+      <c r="Z12" s="107"/>
+      <c r="AA12" s="107"/>
+      <c r="AB12" s="107"/>
+      <c r="AC12" s="107"/>
+      <c r="AD12" s="108"/>
+      <c r="AE12" s="106"/>
+      <c r="AF12" s="107"/>
+      <c r="AG12" s="107"/>
+      <c r="AH12" s="107"/>
+      <c r="AI12" s="107"/>
+      <c r="AJ12" s="107"/>
+      <c r="AK12" s="107"/>
+      <c r="AL12" s="107"/>
+      <c r="AM12" s="108"/>
     </row>
     <row r="14" spans="1:39" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C14" s="120"/>
+      <c r="C14" s="109"/>
     </row>
     <row r="15" spans="1:39" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C15" s="120"/>
+      <c r="C15" s="109"/>
     </row>
     <row r="16" spans="1:39" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="121"/>
+      <c r="A16" s="110"/>
     </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" selectLockedCells="1"/>
   <mergeCells count="8">
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="D2:L2"/>
+    <mergeCell ref="M2:U2"/>
     <mergeCell ref="V2:AD2"/>
     <mergeCell ref="AE2:AM2"/>
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="B5:B6"/>
     <mergeCell ref="B7:B8"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="D2:L2"/>
-    <mergeCell ref="M2:U2"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="DureeTropLongue" error="Cette durée est invalide: ce n'est pas un chiffre entier positif ou elle dépasse la &quot;Durée totale&quot; définie plus haut ..." sqref="C11">
@@ -3727,7 +3737,7 @@
     </row>
     <row r="3" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="19"/>
-      <c r="B3" s="90" t="s">
+      <c r="B3" s="121" t="s">
         <v>21</v>
       </c>
       <c r="C3" s="16">
@@ -3736,7 +3746,7 @@
     </row>
     <row r="4" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="19"/>
-      <c r="B4" s="91"/>
+      <c r="B4" s="126"/>
       <c r="C4" s="22">
         <v>0</v>
       </c>
@@ -4263,7 +4273,7 @@
         <f>SUM(B3:B12)</f>
         <v>0</v>
       </c>
-      <c r="C13" s="122" t="s">
+      <c r="C13" s="111" t="s">
         <v>35</v>
       </c>
       <c r="D13" s="13"/>
@@ -4406,7 +4416,7 @@
         <f>SUM(B17:B26)</f>
         <v>0</v>
       </c>
-      <c r="C27" s="122" t="s">
+      <c r="C27" s="111" t="s">
         <v>35</v>
       </c>
       <c r="D27" s="13"/>
@@ -4549,7 +4559,7 @@
         <f>SUM(B31:B40)</f>
         <v>0</v>
       </c>
-      <c r="C41" s="122" t="s">
+      <c r="C41" s="111" t="s">
         <v>35</v>
       </c>
       <c r="D41" s="13"/>
@@ -4652,7 +4662,7 @@
         <f>SUM(B45:B54)</f>
         <v>0</v>
       </c>
-      <c r="C55" s="122" t="s">
+      <c r="C55" s="111" t="s">
         <v>35</v>
       </c>
       <c r="D55" s="13"/>
@@ -4664,7 +4674,7 @@
       <c r="D56" s="14"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57" s="123" t="s">
+      <c r="A57" s="112" t="s">
         <v>36</v>
       </c>
     </row>
@@ -5105,7 +5115,7 @@
   <dimension ref="A1:I77"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -5153,7 +5163,7 @@
       <c r="B3" s="4">
         <v>3</v>
       </c>
-      <c r="C3" s="125" t="s">
+      <c r="C3" s="114" t="s">
         <v>37</v>
       </c>
       <c r="D3" s="9"/>
@@ -5165,35 +5175,47 @@
       <c r="B4" s="2">
         <v>1</v>
       </c>
-      <c r="C4" s="126" t="s">
+      <c r="C4" s="115" t="s">
         <v>38</v>
       </c>
       <c r="D4" s="10"/>
     </row>
-    <row r="5" spans="1:4" s="53" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" s="53" customFormat="1" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>40</v>
       </c>
       <c r="B5" s="2">
         <v>1</v>
       </c>
-      <c r="C5" s="126" t="s">
+      <c r="C5" s="115" t="s">
         <v>41</v>
       </c>
       <c r="D5" s="10" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="6" spans="1:4" s="53" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="10"/>
+    <row r="6" spans="1:4" s="53" customFormat="1" ht="40.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" s="2">
+        <v>2</v>
+      </c>
+      <c r="C6" s="115" t="s">
+        <v>43</v>
+      </c>
       <c r="D6" s="10"/>
     </row>
-    <row r="7" spans="1:4" s="53" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="10"/>
+    <row r="7" spans="1:4" s="53" customFormat="1" ht="27" x14ac:dyDescent="0.25">
+      <c r="A7" s="127" t="s">
+        <v>40</v>
+      </c>
+      <c r="B7" s="2">
+        <v>2</v>
+      </c>
+      <c r="C7" s="115" t="s">
+        <v>44</v>
+      </c>
       <c r="D7" s="10"/>
     </row>
     <row r="8" spans="1:4" s="53" customFormat="1" x14ac:dyDescent="0.25">
@@ -5262,9 +5284,9 @@
       </c>
       <c r="B18" s="48">
         <f>SUM(B3:B17)</f>
-        <v>5</v>
-      </c>
-      <c r="C18" s="124" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" s="113" t="s">
         <v>35</v>
       </c>
       <c r="D18" s="49"/>
@@ -5467,7 +5489,7 @@
         <f>SUM(B22:B36)</f>
         <v>0</v>
       </c>
-      <c r="C37" s="124" t="s">
+      <c r="C37" s="113" t="s">
         <v>35</v>
       </c>
       <c r="D37" s="49"/>
@@ -5620,7 +5642,7 @@
         <f>SUM(B41:B55)</f>
         <v>0</v>
       </c>
-      <c r="C56" s="124" t="s">
+      <c r="C56" s="113" t="s">
         <v>35</v>
       </c>
       <c r="D56" s="49"/>
@@ -5758,7 +5780,7 @@
         <f>SUM(B60:B74)</f>
         <v>0</v>
       </c>
-      <c r="C75" s="124" t="s">
+      <c r="C75" s="113" t="s">
         <v>35</v>
       </c>
       <c r="D75" s="49"/>
@@ -5770,7 +5792,7 @@
       <c r="D76" s="50"/>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A77" s="123" t="s">
+      <c r="A77" s="112" t="s">
         <v>36</v>
       </c>
     </row>

--- a/Doc/m-planification-jnltrav-Mussa.xlsx
+++ b/Doc/m-planification-jnltrav-Mussa.xlsx
@@ -9,31 +9,31 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Donnees" sheetId="7" r:id="rId1"/>
-    <sheet name="Diagramme" sheetId="155" r:id="rId2"/>
+    <sheet name="Diagramme" sheetId="157" r:id="rId2"/>
     <sheet name="DiagramHeader" sheetId="10" state="hidden" r:id="rId3"/>
     <sheet name="DiagramFooter" sheetId="130" state="hidden" r:id="rId4"/>
     <sheet name="PlanificationWeek" sheetId="11" state="hidden" r:id="rId5"/>
-    <sheet name="Planning" sheetId="156" r:id="rId6"/>
-    <sheet name="achievementWeek" sheetId="154" state="hidden" r:id="rId7"/>
-    <sheet name="JNLTRAV" sheetId="157" r:id="rId8"/>
+    <sheet name="achievementWeek" sheetId="154" state="hidden" r:id="rId6"/>
+    <sheet name="JNLTRAV" sheetId="155" r:id="rId7"/>
+    <sheet name="Planning" sheetId="156" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName name="datDateBegin">Donnees!$C$9</definedName>
-    <definedName name="ListTasks">Diagramme!$B$3:$B$10</definedName>
+    <definedName name="ListTasks">Diagramme!$B$3:$B$14</definedName>
     <definedName name="lstTasks">Donnees!$C$20:$C$45</definedName>
-    <definedName name="NbLessons">Diagramme!$C$3:$C$10</definedName>
+    <definedName name="NbLessons">Diagramme!$C$3:$C$14</definedName>
     <definedName name="NbPerWeek">Donnees!$C$12</definedName>
     <definedName name="NbQuartPer">Donnees!$C$13</definedName>
     <definedName name="NbWeeks">Donnees!$C$11</definedName>
     <definedName name="objFooterDiagram">DiagramFooter!$B$3:$C$4</definedName>
-    <definedName name="objPlanifWeek" localSheetId="5">Planning!$A$1:$D$14</definedName>
+    <definedName name="objPlanifWeek" localSheetId="7">Planning!$A$1:$D$14</definedName>
     <definedName name="objPlanifWeek">PlanificationWeek!$A$1:$D$14</definedName>
-    <definedName name="objRealizedWeek" localSheetId="6">achievementWeek!$A$1:$D$19</definedName>
-    <definedName name="objRealizedWeek" localSheetId="7">JNLTRAV!$A$1:$D$19</definedName>
+    <definedName name="objRealizedWeek" localSheetId="5">achievementWeek!$A$1:$D$19</definedName>
+    <definedName name="objRealizedWeek" localSheetId="6">JNLTRAV!$A$1:$D$19</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Donnees!$A$1:$G$47</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="59">
   <si>
     <t>Module :</t>
   </si>
@@ -131,6 +131,9 @@
     <t>Début:</t>
   </si>
   <si>
+    <t>I122-MMN</t>
+  </si>
+  <si>
     <t>Mussa AL Hussein</t>
   </si>
   <si>
@@ -140,16 +143,25 @@
     <t>Lausanne</t>
   </si>
   <si>
-    <t>I122-MMN</t>
+    <t>Powershell</t>
   </si>
   <si>
-    <t>Powershell</t>
+    <t>Journal De Travail</t>
   </si>
   <si>
     <t>Explication Prof</t>
   </si>
   <si>
-    <t>Journal De Travail</t>
+    <t>Installation</t>
+  </si>
+  <si>
+    <t>Recherche</t>
+  </si>
+  <si>
+    <t>Max. 12</t>
+  </si>
+  <si>
+    <t>STOP</t>
   </si>
   <si>
     <t>S 1</t>
@@ -164,22 +176,10 @@
     <t>S 4</t>
   </si>
   <si>
-    <t>Max. 9</t>
-  </si>
-  <si>
-    <t>STOP</t>
-  </si>
-  <si>
     <t>explication du prof sur les différents projets et le cahier des charges etc.</t>
   </si>
   <si>
     <t>Installation Github, Création de fichier backup.</t>
-  </si>
-  <si>
-    <t>Installation</t>
-  </si>
-  <si>
-    <t>Recherche</t>
   </si>
   <si>
     <t>Rechercher comment contrôler une liste de machine à distance sur powershell.</t>
@@ -192,6 +192,48 @@
   </si>
   <si>
     <t>Lire le chapitre Remoting, comprendre et tester de chercher les noms de machines par leur adresse ipv4.</t>
+  </si>
+  <si>
+    <t>Installation d'une deuxième machine virtuelle pour apprendre et tester le Remoting. Configuration des 2 machines pour pouvoir pinger l'un l'autre.</t>
+  </si>
+  <si>
+    <t>Faire le script. Ajout de script remoting, ajout de script espace disque, ajout de script espace disque en %, ajout de script pour créer 2 fichier, 1 fichier log et 1 fichier erreur.</t>
+  </si>
+  <si>
+    <t>Présentation</t>
+  </si>
+  <si>
+    <t>Diagramme de flux</t>
+  </si>
+  <si>
+    <t>Avancer sur le diagramme de flux</t>
+  </si>
+  <si>
+    <t>Avancer sur la présentation.</t>
+  </si>
+  <si>
+    <t>Faire mon journal de travail.</t>
+  </si>
+  <si>
+    <t>Fin du diagramme de flux.</t>
+  </si>
+  <si>
+    <t>Diagramme de flux RemotingDisqueSpace (1).png</t>
+  </si>
+  <si>
+    <t>Commencer la présentation powerpoint de notre projet, création de slide, d'explication et un fichier word de ce qu'on va présenter.</t>
+  </si>
+  <si>
+    <t>Faire mon journal de travail</t>
+  </si>
+  <si>
+    <t>Fin du code + ajouts des différents amélioration que le prof à demandé.</t>
+  </si>
+  <si>
+    <t>Préparation de la présentation pour présenter à la classe.</t>
+  </si>
+  <si>
+    <t>Chaque groupe présente leur projet.</t>
   </si>
 </sst>
 </file>
@@ -305,6 +347,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color theme="0"/>
+      <name val="Century Gothic"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="12"/>
       <name val="Century Gothic"/>
       <family val="2"/>
@@ -319,13 +368,6 @@
     <font>
       <b/>
       <sz val="18"/>
-      <name val="Century Gothic"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="0"/>
       <name val="Century Gothic"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1259,6 +1301,13 @@
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyProtection="1"/>
@@ -1272,27 +1321,19 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
@@ -1301,39 +1342,40 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="16" fillId="6" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="17" fillId="6" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
@@ -1638,10 +1680,10 @@
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="41985" name="btnImportPlanification" hidden="1">
+            <xdr:cNvPr id="38913" name="btnImportRealisation" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s41985"/>
+                  <a14:compatExt spid="_x0000_s38913"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1698,10 +1740,10 @@
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="38913" name="btnImportRealisation" hidden="1">
+            <xdr:cNvPr id="39937" name="btnImportRealisation" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s38913"/>
+                  <a14:compatExt spid="_x0000_s39937"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1758,10 +1800,10 @@
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="43009" name="btnImportRealisation" hidden="1">
+            <xdr:cNvPr id="40961" name="btnImportPlanification" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s43009"/>
+                  <a14:compatExt spid="_x0000_s40961"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2031,8 +2073,8 @@
   </sheetPr>
   <dimension ref="A1:M73"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A10" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A4" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -2070,7 +2112,7 @@
         <v>0</v>
       </c>
       <c r="C3" s="63" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D3" s="60"/>
       <c r="E3" s="60"/>
@@ -2083,7 +2125,7 @@
         <v>4</v>
       </c>
       <c r="C4" s="65" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" s="60"/>
       <c r="E4" s="60"/>
@@ -2096,7 +2138,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="65" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D5" s="60"/>
       <c r="E5" s="60"/>
@@ -2109,7 +2151,7 @@
         <v>2</v>
       </c>
       <c r="C6" s="67" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D6" s="60"/>
       <c r="E6" s="60"/>
@@ -2179,7 +2221,7 @@
         <v>11</v>
       </c>
       <c r="C12" s="72">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D12" s="60"/>
       <c r="E12" s="60"/>
@@ -2248,10 +2290,10 @@
     </row>
     <row r="19" spans="1:13" ht="21" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="79"/>
-      <c r="B19" s="116" t="s">
+      <c r="B19" s="117" t="s">
         <v>19</v>
       </c>
-      <c r="C19" s="117"/>
+      <c r="C19" s="118"/>
       <c r="D19" s="60"/>
       <c r="E19" s="60"/>
       <c r="F19" s="60"/>
@@ -2289,7 +2331,7 @@
         <v>2</v>
       </c>
       <c r="C22" s="71" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D22" s="60"/>
       <c r="E22" s="60"/>
@@ -2302,7 +2344,7 @@
         <v>3</v>
       </c>
       <c r="C23" s="71" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D23" s="60"/>
       <c r="E23" s="60"/>
@@ -2315,7 +2357,7 @@
         <v>4</v>
       </c>
       <c r="C24" s="71" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="D24" s="60"/>
       <c r="E24" s="60"/>
@@ -2328,7 +2370,7 @@
         <v>5</v>
       </c>
       <c r="C25" s="71" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="D25" s="60"/>
       <c r="E25" s="60"/>
@@ -2340,7 +2382,9 @@
       <c r="B26" s="82">
         <v>6</v>
       </c>
-      <c r="C26" s="71"/>
+      <c r="C26" s="71" t="s">
+        <v>47</v>
+      </c>
       <c r="D26" s="60"/>
       <c r="E26" s="60"/>
       <c r="F26" s="60"/>
@@ -2351,7 +2395,9 @@
       <c r="B27" s="80">
         <v>7</v>
       </c>
-      <c r="C27" s="71"/>
+      <c r="C27" s="71" t="s">
+        <v>48</v>
+      </c>
       <c r="D27" s="60"/>
       <c r="E27" s="60"/>
       <c r="F27" s="60"/>
@@ -3083,27 +3129,27 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="15364" r:id="rId5" name="btnCreatePlanning">
+        <control shapeId="15365" r:id="rId5" name="btnCreateWorkSheet">
           <controlPr defaultSize="0" autoLine="0" r:id="rId6">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
                 <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
+                <xdr:row>8</xdr:row>
+                <xdr:rowOff>190500</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>6</xdr:col>
-                <xdr:colOff>95250</xdr:colOff>
-                <xdr:row>7</xdr:row>
-                <xdr:rowOff>47625</xdr:rowOff>
+                <xdr:colOff>114300</xdr:colOff>
+                <xdr:row>10</xdr:row>
+                <xdr:rowOff>152400</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="15364" r:id="rId5" name="btnCreatePlanning"/>
+        <control shapeId="15365" r:id="rId5" name="btnCreateWorkSheet"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -3133,27 +3179,27 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="15365" r:id="rId9" name="btnCreateWorkSheet">
+        <control shapeId="15364" r:id="rId9" name="btnCreatePlanning">
           <controlPr defaultSize="0" autoLine="0" r:id="rId10">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
                 <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>8</xdr:row>
-                <xdr:rowOff>190500</xdr:rowOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>6</xdr:col>
-                <xdr:colOff>114300</xdr:colOff>
-                <xdr:row>10</xdr:row>
-                <xdr:rowOff>152400</xdr:rowOff>
+                <xdr:colOff>95250</xdr:colOff>
+                <xdr:row>7</xdr:row>
+                <xdr:rowOff>47625</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="15365" r:id="rId9" name="btnCreateWorkSheet"/>
+        <control shapeId="15364" r:id="rId9" name="btnCreatePlanning"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -3163,7 +3209,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Feuil7"/>
-  <dimension ref="A1:AM16"/>
+  <dimension ref="A1:AY16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
@@ -3171,537 +3217,884 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="1.5703125" defaultRowHeight="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" style="88" customWidth="1"/>
-    <col min="2" max="2" width="51.28515625" style="88" customWidth="1"/>
-    <col min="3" max="3" width="19.42578125" style="88" customWidth="1"/>
-    <col min="4" max="16384" width="1.5703125" style="88"/>
+    <col min="1" max="1" width="17.85546875" style="91" customWidth="1"/>
+    <col min="2" max="2" width="51.28515625" style="91" customWidth="1"/>
+    <col min="3" max="3" width="19.42578125" style="91" customWidth="1"/>
+    <col min="4" max="16384" width="1.5703125" style="91"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="89"/>
-      <c r="C1" s="89"/>
-    </row>
-    <row r="2" spans="1:39" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="90"/>
+    <row r="1" spans="1:51" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="92"/>
+      <c r="C1" s="92"/>
+    </row>
+    <row r="2" spans="1:51" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="93"/>
       <c r="B2" s="23" t="s">
         <v>5</v>
       </c>
       <c r="C2" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="118" t="s">
-        <v>31</v>
-      </c>
-      <c r="E2" s="119"/>
-      <c r="F2" s="119"/>
-      <c r="G2" s="119"/>
-      <c r="H2" s="119"/>
-      <c r="I2" s="119"/>
-      <c r="J2" s="119"/>
-      <c r="K2" s="119"/>
-      <c r="L2" s="120"/>
-      <c r="M2" s="118" t="s">
-        <v>32</v>
-      </c>
-      <c r="N2" s="119"/>
-      <c r="O2" s="119"/>
-      <c r="P2" s="119"/>
-      <c r="Q2" s="119"/>
-      <c r="R2" s="119"/>
-      <c r="S2" s="119"/>
-      <c r="T2" s="119"/>
-      <c r="U2" s="120"/>
-      <c r="V2" s="118" t="s">
-        <v>33</v>
-      </c>
-      <c r="W2" s="119"/>
-      <c r="X2" s="119"/>
-      <c r="Y2" s="119"/>
-      <c r="Z2" s="119"/>
-      <c r="AA2" s="119"/>
-      <c r="AB2" s="119"/>
-      <c r="AC2" s="119"/>
-      <c r="AD2" s="120"/>
-      <c r="AE2" s="118" t="s">
-        <v>34</v>
-      </c>
-      <c r="AF2" s="119"/>
-      <c r="AG2" s="119"/>
-      <c r="AH2" s="119"/>
-      <c r="AI2" s="119"/>
-      <c r="AJ2" s="119"/>
-      <c r="AK2" s="119"/>
-      <c r="AL2" s="119"/>
-      <c r="AM2" s="120"/>
-    </row>
-    <row r="3" spans="1:39" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="90"/>
-      <c r="B3" s="121" t="s">
+      <c r="D2" s="122" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2" s="123"/>
+      <c r="F2" s="123"/>
+      <c r="G2" s="123"/>
+      <c r="H2" s="123"/>
+      <c r="I2" s="123"/>
+      <c r="J2" s="123"/>
+      <c r="K2" s="123"/>
+      <c r="L2" s="123"/>
+      <c r="M2" s="123"/>
+      <c r="N2" s="123"/>
+      <c r="O2" s="124"/>
+      <c r="P2" s="122" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q2" s="123"/>
+      <c r="R2" s="123"/>
+      <c r="S2" s="123"/>
+      <c r="T2" s="123"/>
+      <c r="U2" s="123"/>
+      <c r="V2" s="123"/>
+      <c r="W2" s="123"/>
+      <c r="X2" s="123"/>
+      <c r="Y2" s="123"/>
+      <c r="Z2" s="123"/>
+      <c r="AA2" s="124"/>
+      <c r="AB2" s="122" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC2" s="123"/>
+      <c r="AD2" s="123"/>
+      <c r="AE2" s="123"/>
+      <c r="AF2" s="123"/>
+      <c r="AG2" s="123"/>
+      <c r="AH2" s="123"/>
+      <c r="AI2" s="123"/>
+      <c r="AJ2" s="123"/>
+      <c r="AK2" s="123"/>
+      <c r="AL2" s="123"/>
+      <c r="AM2" s="124"/>
+      <c r="AN2" s="122" t="s">
+        <v>38</v>
+      </c>
+      <c r="AO2" s="123"/>
+      <c r="AP2" s="123"/>
+      <c r="AQ2" s="123"/>
+      <c r="AR2" s="123"/>
+      <c r="AS2" s="123"/>
+      <c r="AT2" s="123"/>
+      <c r="AU2" s="123"/>
+      <c r="AV2" s="123"/>
+      <c r="AW2" s="123"/>
+      <c r="AX2" s="123"/>
+      <c r="AY2" s="124"/>
+    </row>
+    <row r="3" spans="1:51" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="93"/>
+      <c r="B3" s="125" t="s">
         <v>21</v>
       </c>
       <c r="C3" s="16">
         <v>0</v>
       </c>
-      <c r="D3" s="91"/>
-      <c r="E3" s="92"/>
-      <c r="F3" s="93"/>
-      <c r="G3" s="94"/>
-      <c r="H3" s="92"/>
-      <c r="I3" s="93"/>
-      <c r="J3" s="94"/>
-      <c r="K3" s="92"/>
-      <c r="L3" s="95"/>
-      <c r="M3" s="91"/>
-      <c r="N3" s="92"/>
-      <c r="O3" s="93"/>
+      <c r="D3" s="94"/>
+      <c r="E3" s="95"/>
+      <c r="F3" s="96"/>
+      <c r="G3" s="97"/>
+      <c r="H3" s="95"/>
+      <c r="I3" s="96"/>
+      <c r="J3" s="97"/>
+      <c r="K3" s="95"/>
+      <c r="L3" s="96"/>
+      <c r="M3" s="97"/>
+      <c r="N3" s="95"/>
+      <c r="O3" s="98"/>
       <c r="P3" s="94"/>
-      <c r="Q3" s="92"/>
-      <c r="R3" s="93"/>
-      <c r="S3" s="94"/>
-      <c r="T3" s="92"/>
-      <c r="U3" s="95"/>
-      <c r="V3" s="91"/>
-      <c r="W3" s="92"/>
-      <c r="X3" s="93"/>
-      <c r="Y3" s="94"/>
-      <c r="Z3" s="92"/>
-      <c r="AA3" s="93"/>
+      <c r="Q3" s="95"/>
+      <c r="R3" s="96"/>
+      <c r="S3" s="97"/>
+      <c r="T3" s="95"/>
+      <c r="U3" s="96"/>
+      <c r="V3" s="97"/>
+      <c r="W3" s="95"/>
+      <c r="X3" s="96"/>
+      <c r="Y3" s="97"/>
+      <c r="Z3" s="95"/>
+      <c r="AA3" s="98"/>
       <c r="AB3" s="94"/>
-      <c r="AC3" s="92"/>
-      <c r="AD3" s="95"/>
-      <c r="AE3" s="91"/>
-      <c r="AF3" s="92"/>
-      <c r="AG3" s="93"/>
-      <c r="AH3" s="94"/>
-      <c r="AI3" s="92"/>
-      <c r="AJ3" s="93"/>
-      <c r="AK3" s="94"/>
-      <c r="AL3" s="92"/>
-      <c r="AM3" s="95"/>
-    </row>
-    <row r="4" spans="1:39" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="90"/>
-      <c r="B4" s="122"/>
+      <c r="AC3" s="95"/>
+      <c r="AD3" s="96"/>
+      <c r="AE3" s="97"/>
+      <c r="AF3" s="95"/>
+      <c r="AG3" s="96"/>
+      <c r="AH3" s="97"/>
+      <c r="AI3" s="95"/>
+      <c r="AJ3" s="96"/>
+      <c r="AK3" s="97"/>
+      <c r="AL3" s="95"/>
+      <c r="AM3" s="98"/>
+      <c r="AN3" s="94"/>
+      <c r="AO3" s="95"/>
+      <c r="AP3" s="96"/>
+      <c r="AQ3" s="97"/>
+      <c r="AR3" s="95"/>
+      <c r="AS3" s="96"/>
+      <c r="AT3" s="97"/>
+      <c r="AU3" s="95"/>
+      <c r="AV3" s="96"/>
+      <c r="AW3" s="97"/>
+      <c r="AX3" s="95"/>
+      <c r="AY3" s="98"/>
+    </row>
+    <row r="4" spans="1:51" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="93"/>
+      <c r="B4" s="126"/>
       <c r="C4" s="22">
         <v>0</v>
       </c>
-      <c r="D4" s="96"/>
-      <c r="E4" s="97"/>
-      <c r="F4" s="98"/>
-      <c r="G4" s="99"/>
-      <c r="H4" s="97"/>
-      <c r="I4" s="98"/>
-      <c r="J4" s="99"/>
-      <c r="K4" s="97"/>
-      <c r="L4" s="100"/>
-      <c r="M4" s="96"/>
-      <c r="N4" s="97"/>
-      <c r="O4" s="98"/>
+      <c r="D4" s="99"/>
+      <c r="E4" s="100"/>
+      <c r="F4" s="101"/>
+      <c r="G4" s="102"/>
+      <c r="H4" s="100"/>
+      <c r="I4" s="101"/>
+      <c r="J4" s="102"/>
+      <c r="K4" s="100"/>
+      <c r="L4" s="101"/>
+      <c r="M4" s="102"/>
+      <c r="N4" s="100"/>
+      <c r="O4" s="103"/>
       <c r="P4" s="99"/>
-      <c r="Q4" s="97"/>
-      <c r="R4" s="98"/>
-      <c r="S4" s="99"/>
-      <c r="T4" s="97"/>
-      <c r="U4" s="100"/>
-      <c r="V4" s="96"/>
-      <c r="W4" s="97"/>
-      <c r="X4" s="98"/>
-      <c r="Y4" s="99"/>
-      <c r="Z4" s="97"/>
-      <c r="AA4" s="98"/>
+      <c r="Q4" s="100"/>
+      <c r="R4" s="101"/>
+      <c r="S4" s="102"/>
+      <c r="T4" s="100"/>
+      <c r="U4" s="101"/>
+      <c r="V4" s="102"/>
+      <c r="W4" s="100"/>
+      <c r="X4" s="101"/>
+      <c r="Y4" s="102"/>
+      <c r="Z4" s="100"/>
+      <c r="AA4" s="103"/>
       <c r="AB4" s="99"/>
-      <c r="AC4" s="97"/>
-      <c r="AD4" s="100"/>
-      <c r="AE4" s="96"/>
-      <c r="AF4" s="97"/>
-      <c r="AG4" s="98"/>
-      <c r="AH4" s="99"/>
-      <c r="AI4" s="97"/>
-      <c r="AJ4" s="98"/>
-      <c r="AK4" s="99"/>
-      <c r="AL4" s="97"/>
-      <c r="AM4" s="100"/>
-    </row>
-    <row r="5" spans="1:39" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="123" t="str">
+      <c r="AC4" s="100"/>
+      <c r="AD4" s="101"/>
+      <c r="AE4" s="102"/>
+      <c r="AF4" s="100"/>
+      <c r="AG4" s="101"/>
+      <c r="AH4" s="102"/>
+      <c r="AI4" s="100"/>
+      <c r="AJ4" s="101"/>
+      <c r="AK4" s="102"/>
+      <c r="AL4" s="100"/>
+      <c r="AM4" s="103"/>
+      <c r="AN4" s="99"/>
+      <c r="AO4" s="100"/>
+      <c r="AP4" s="101"/>
+      <c r="AQ4" s="102"/>
+      <c r="AR4" s="100"/>
+      <c r="AS4" s="101"/>
+      <c r="AT4" s="102"/>
+      <c r="AU4" s="100"/>
+      <c r="AV4" s="101"/>
+      <c r="AW4" s="102"/>
+      <c r="AX4" s="100"/>
+      <c r="AY4" s="103"/>
+    </row>
+    <row r="5" spans="1:51" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="119" t="str">
         <f>Donnees!$C$21</f>
         <v>Powershell</v>
       </c>
-      <c r="C5" s="101">
+      <c r="C5" s="104">
         <v>0</v>
       </c>
-      <c r="D5" s="91"/>
-      <c r="E5" s="92"/>
-      <c r="F5" s="93"/>
-      <c r="G5" s="94"/>
-      <c r="H5" s="92"/>
-      <c r="I5" s="93"/>
-      <c r="J5" s="94"/>
-      <c r="K5" s="92"/>
-      <c r="L5" s="95"/>
-      <c r="M5" s="91"/>
-      <c r="N5" s="92"/>
-      <c r="O5" s="93"/>
+      <c r="D5" s="94"/>
+      <c r="E5" s="95"/>
+      <c r="F5" s="96"/>
+      <c r="G5" s="97"/>
+      <c r="H5" s="95"/>
+      <c r="I5" s="96"/>
+      <c r="J5" s="97"/>
+      <c r="K5" s="95"/>
+      <c r="L5" s="96"/>
+      <c r="M5" s="97"/>
+      <c r="N5" s="95"/>
+      <c r="O5" s="98"/>
       <c r="P5" s="94"/>
-      <c r="Q5" s="92"/>
-      <c r="R5" s="93"/>
-      <c r="S5" s="94"/>
-      <c r="T5" s="92"/>
-      <c r="U5" s="95"/>
-      <c r="V5" s="91"/>
-      <c r="W5" s="92"/>
-      <c r="X5" s="93"/>
-      <c r="Y5" s="94"/>
-      <c r="Z5" s="92"/>
-      <c r="AA5" s="93"/>
+      <c r="Q5" s="95"/>
+      <c r="R5" s="96"/>
+      <c r="S5" s="97"/>
+      <c r="T5" s="95"/>
+      <c r="U5" s="96"/>
+      <c r="V5" s="97"/>
+      <c r="W5" s="95"/>
+      <c r="X5" s="96"/>
+      <c r="Y5" s="97"/>
+      <c r="Z5" s="95"/>
+      <c r="AA5" s="98"/>
       <c r="AB5" s="94"/>
-      <c r="AC5" s="92"/>
-      <c r="AD5" s="95"/>
-      <c r="AE5" s="91"/>
-      <c r="AF5" s="92"/>
-      <c r="AG5" s="93"/>
-      <c r="AH5" s="94"/>
-      <c r="AI5" s="92"/>
-      <c r="AJ5" s="93"/>
-      <c r="AK5" s="94"/>
-      <c r="AL5" s="92"/>
-      <c r="AM5" s="95"/>
-    </row>
-    <row r="6" spans="1:39" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="124"/>
-      <c r="C6" s="102">
+      <c r="AC5" s="95"/>
+      <c r="AD5" s="96"/>
+      <c r="AE5" s="97"/>
+      <c r="AF5" s="95"/>
+      <c r="AG5" s="96"/>
+      <c r="AH5" s="97"/>
+      <c r="AI5" s="95"/>
+      <c r="AJ5" s="96"/>
+      <c r="AK5" s="97"/>
+      <c r="AL5" s="95"/>
+      <c r="AM5" s="98"/>
+      <c r="AN5" s="94"/>
+      <c r="AO5" s="95"/>
+      <c r="AP5" s="96"/>
+      <c r="AQ5" s="97"/>
+      <c r="AR5" s="95"/>
+      <c r="AS5" s="96"/>
+      <c r="AT5" s="97"/>
+      <c r="AU5" s="95"/>
+      <c r="AV5" s="96"/>
+      <c r="AW5" s="97"/>
+      <c r="AX5" s="95"/>
+      <c r="AY5" s="98"/>
+    </row>
+    <row r="6" spans="1:51" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="120"/>
+      <c r="C6" s="105">
         <v>0</v>
       </c>
-      <c r="D6" s="96"/>
-      <c r="E6" s="97"/>
-      <c r="F6" s="98"/>
-      <c r="G6" s="99"/>
-      <c r="H6" s="97"/>
-      <c r="I6" s="98"/>
-      <c r="J6" s="99"/>
-      <c r="K6" s="97"/>
-      <c r="L6" s="100"/>
-      <c r="M6" s="96"/>
-      <c r="N6" s="97"/>
-      <c r="O6" s="98"/>
+      <c r="D6" s="99"/>
+      <c r="E6" s="100"/>
+      <c r="F6" s="101"/>
+      <c r="G6" s="102"/>
+      <c r="H6" s="100"/>
+      <c r="I6" s="101"/>
+      <c r="J6" s="102"/>
+      <c r="K6" s="100"/>
+      <c r="L6" s="101"/>
+      <c r="M6" s="102"/>
+      <c r="N6" s="100"/>
+      <c r="O6" s="103"/>
       <c r="P6" s="99"/>
-      <c r="Q6" s="97"/>
-      <c r="R6" s="98"/>
-      <c r="S6" s="99"/>
-      <c r="T6" s="97"/>
-      <c r="U6" s="100"/>
-      <c r="V6" s="96"/>
-      <c r="W6" s="97"/>
-      <c r="X6" s="98"/>
-      <c r="Y6" s="99"/>
-      <c r="Z6" s="97"/>
-      <c r="AA6" s="98"/>
+      <c r="Q6" s="100"/>
+      <c r="R6" s="101"/>
+      <c r="S6" s="102"/>
+      <c r="T6" s="100"/>
+      <c r="U6" s="101"/>
+      <c r="V6" s="102"/>
+      <c r="W6" s="100"/>
+      <c r="X6" s="101"/>
+      <c r="Y6" s="102"/>
+      <c r="Z6" s="100"/>
+      <c r="AA6" s="103"/>
       <c r="AB6" s="99"/>
-      <c r="AC6" s="97"/>
-      <c r="AD6" s="100"/>
-      <c r="AE6" s="96"/>
-      <c r="AF6" s="97"/>
-      <c r="AG6" s="98"/>
-      <c r="AH6" s="99"/>
-      <c r="AI6" s="97"/>
-      <c r="AJ6" s="98"/>
-      <c r="AK6" s="99"/>
-      <c r="AL6" s="97"/>
-      <c r="AM6" s="100"/>
-    </row>
-    <row r="7" spans="1:39" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="125" t="str">
+      <c r="AC6" s="100"/>
+      <c r="AD6" s="101"/>
+      <c r="AE6" s="102"/>
+      <c r="AF6" s="100"/>
+      <c r="AG6" s="101"/>
+      <c r="AH6" s="102"/>
+      <c r="AI6" s="100"/>
+      <c r="AJ6" s="101"/>
+      <c r="AK6" s="102"/>
+      <c r="AL6" s="100"/>
+      <c r="AM6" s="103"/>
+      <c r="AN6" s="99"/>
+      <c r="AO6" s="100"/>
+      <c r="AP6" s="101"/>
+      <c r="AQ6" s="102"/>
+      <c r="AR6" s="100"/>
+      <c r="AS6" s="101"/>
+      <c r="AT6" s="102"/>
+      <c r="AU6" s="100"/>
+      <c r="AV6" s="101"/>
+      <c r="AW6" s="102"/>
+      <c r="AX6" s="100"/>
+      <c r="AY6" s="103"/>
+    </row>
+    <row r="7" spans="1:51" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="121" t="str">
         <f>Donnees!$C$22</f>
         <v>Journal De Travail</v>
       </c>
-      <c r="C7" s="101">
+      <c r="C7" s="104">
         <v>0</v>
       </c>
-      <c r="D7" s="91"/>
-      <c r="E7" s="92"/>
-      <c r="F7" s="93"/>
-      <c r="G7" s="94"/>
-      <c r="H7" s="92"/>
-      <c r="I7" s="93"/>
-      <c r="J7" s="94"/>
-      <c r="K7" s="92"/>
-      <c r="L7" s="95"/>
-      <c r="M7" s="91"/>
-      <c r="N7" s="92"/>
-      <c r="O7" s="93"/>
+      <c r="D7" s="94"/>
+      <c r="E7" s="95"/>
+      <c r="F7" s="96"/>
+      <c r="G7" s="97"/>
+      <c r="H7" s="95"/>
+      <c r="I7" s="96"/>
+      <c r="J7" s="97"/>
+      <c r="K7" s="95"/>
+      <c r="L7" s="96"/>
+      <c r="M7" s="97"/>
+      <c r="N7" s="95"/>
+      <c r="O7" s="98"/>
       <c r="P7" s="94"/>
-      <c r="Q7" s="92"/>
-      <c r="R7" s="93"/>
-      <c r="S7" s="94"/>
-      <c r="T7" s="92"/>
-      <c r="U7" s="95"/>
-      <c r="V7" s="91"/>
-      <c r="W7" s="92"/>
-      <c r="X7" s="93"/>
-      <c r="Y7" s="94"/>
-      <c r="Z7" s="92"/>
-      <c r="AA7" s="93"/>
+      <c r="Q7" s="95"/>
+      <c r="R7" s="96"/>
+      <c r="S7" s="97"/>
+      <c r="T7" s="95"/>
+      <c r="U7" s="96"/>
+      <c r="V7" s="97"/>
+      <c r="W7" s="95"/>
+      <c r="X7" s="96"/>
+      <c r="Y7" s="97"/>
+      <c r="Z7" s="95"/>
+      <c r="AA7" s="98"/>
       <c r="AB7" s="94"/>
-      <c r="AC7" s="92"/>
-      <c r="AD7" s="95"/>
-      <c r="AE7" s="91"/>
-      <c r="AF7" s="92"/>
-      <c r="AG7" s="93"/>
-      <c r="AH7" s="94"/>
-      <c r="AI7" s="92"/>
-      <c r="AJ7" s="93"/>
-      <c r="AK7" s="94"/>
-      <c r="AL7" s="92"/>
-      <c r="AM7" s="95"/>
-    </row>
-    <row r="8" spans="1:39" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="124"/>
-      <c r="C8" s="102">
+      <c r="AC7" s="95"/>
+      <c r="AD7" s="96"/>
+      <c r="AE7" s="97"/>
+      <c r="AF7" s="95"/>
+      <c r="AG7" s="96"/>
+      <c r="AH7" s="97"/>
+      <c r="AI7" s="95"/>
+      <c r="AJ7" s="96"/>
+      <c r="AK7" s="97"/>
+      <c r="AL7" s="95"/>
+      <c r="AM7" s="98"/>
+      <c r="AN7" s="94"/>
+      <c r="AO7" s="95"/>
+      <c r="AP7" s="96"/>
+      <c r="AQ7" s="97"/>
+      <c r="AR7" s="95"/>
+      <c r="AS7" s="96"/>
+      <c r="AT7" s="97"/>
+      <c r="AU7" s="95"/>
+      <c r="AV7" s="96"/>
+      <c r="AW7" s="97"/>
+      <c r="AX7" s="95"/>
+      <c r="AY7" s="98"/>
+    </row>
+    <row r="8" spans="1:51" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="120"/>
+      <c r="C8" s="105">
         <v>0</v>
       </c>
-      <c r="D8" s="96"/>
-      <c r="E8" s="97"/>
-      <c r="F8" s="98"/>
-      <c r="G8" s="99"/>
-      <c r="H8" s="97"/>
-      <c r="I8" s="98"/>
-      <c r="J8" s="99"/>
-      <c r="K8" s="97"/>
-      <c r="L8" s="100"/>
-      <c r="M8" s="96"/>
-      <c r="N8" s="97"/>
-      <c r="O8" s="98"/>
+      <c r="D8" s="99"/>
+      <c r="E8" s="100"/>
+      <c r="F8" s="101"/>
+      <c r="G8" s="102"/>
+      <c r="H8" s="100"/>
+      <c r="I8" s="101"/>
+      <c r="J8" s="102"/>
+      <c r="K8" s="100"/>
+      <c r="L8" s="101"/>
+      <c r="M8" s="102"/>
+      <c r="N8" s="100"/>
+      <c r="O8" s="103"/>
       <c r="P8" s="99"/>
-      <c r="Q8" s="97"/>
-      <c r="R8" s="98"/>
-      <c r="S8" s="99"/>
-      <c r="T8" s="97"/>
-      <c r="U8" s="100"/>
-      <c r="V8" s="96"/>
-      <c r="W8" s="97"/>
-      <c r="X8" s="98"/>
-      <c r="Y8" s="99"/>
-      <c r="Z8" s="97"/>
-      <c r="AA8" s="98"/>
+      <c r="Q8" s="100"/>
+      <c r="R8" s="101"/>
+      <c r="S8" s="102"/>
+      <c r="T8" s="100"/>
+      <c r="U8" s="101"/>
+      <c r="V8" s="102"/>
+      <c r="W8" s="100"/>
+      <c r="X8" s="101"/>
+      <c r="Y8" s="102"/>
+      <c r="Z8" s="100"/>
+      <c r="AA8" s="103"/>
       <c r="AB8" s="99"/>
-      <c r="AC8" s="97"/>
-      <c r="AD8" s="100"/>
-      <c r="AE8" s="96"/>
-      <c r="AF8" s="97"/>
-      <c r="AG8" s="98"/>
-      <c r="AH8" s="99"/>
-      <c r="AI8" s="97"/>
-      <c r="AJ8" s="98"/>
-      <c r="AK8" s="99"/>
-      <c r="AL8" s="97"/>
-      <c r="AM8" s="100"/>
-    </row>
-    <row r="9" spans="1:39" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="125" t="str">
+      <c r="AC8" s="100"/>
+      <c r="AD8" s="101"/>
+      <c r="AE8" s="102"/>
+      <c r="AF8" s="100"/>
+      <c r="AG8" s="101"/>
+      <c r="AH8" s="102"/>
+      <c r="AI8" s="100"/>
+      <c r="AJ8" s="101"/>
+      <c r="AK8" s="102"/>
+      <c r="AL8" s="100"/>
+      <c r="AM8" s="103"/>
+      <c r="AN8" s="99"/>
+      <c r="AO8" s="100"/>
+      <c r="AP8" s="101"/>
+      <c r="AQ8" s="102"/>
+      <c r="AR8" s="100"/>
+      <c r="AS8" s="101"/>
+      <c r="AT8" s="102"/>
+      <c r="AU8" s="100"/>
+      <c r="AV8" s="101"/>
+      <c r="AW8" s="102"/>
+      <c r="AX8" s="100"/>
+      <c r="AY8" s="103"/>
+    </row>
+    <row r="9" spans="1:51" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="121" t="str">
         <f>Donnees!$C$23</f>
         <v>Explication Prof</v>
       </c>
-      <c r="C9" s="101">
+      <c r="C9" s="104">
         <v>0</v>
       </c>
-      <c r="D9" s="91"/>
-      <c r="E9" s="92"/>
-      <c r="F9" s="93"/>
-      <c r="G9" s="94"/>
-      <c r="H9" s="92"/>
-      <c r="I9" s="93"/>
-      <c r="J9" s="94"/>
-      <c r="K9" s="92"/>
-      <c r="L9" s="95"/>
-      <c r="M9" s="91"/>
-      <c r="N9" s="92"/>
-      <c r="O9" s="93"/>
+      <c r="D9" s="94"/>
+      <c r="E9" s="95"/>
+      <c r="F9" s="96"/>
+      <c r="G9" s="97"/>
+      <c r="H9" s="95"/>
+      <c r="I9" s="96"/>
+      <c r="J9" s="97"/>
+      <c r="K9" s="95"/>
+      <c r="L9" s="96"/>
+      <c r="M9" s="97"/>
+      <c r="N9" s="95"/>
+      <c r="O9" s="98"/>
       <c r="P9" s="94"/>
-      <c r="Q9" s="92"/>
-      <c r="R9" s="93"/>
-      <c r="S9" s="94"/>
-      <c r="T9" s="92"/>
-      <c r="U9" s="95"/>
-      <c r="V9" s="91"/>
-      <c r="W9" s="92"/>
-      <c r="X9" s="93"/>
-      <c r="Y9" s="94"/>
-      <c r="Z9" s="92"/>
-      <c r="AA9" s="93"/>
+      <c r="Q9" s="95"/>
+      <c r="R9" s="96"/>
+      <c r="S9" s="97"/>
+      <c r="T9" s="95"/>
+      <c r="U9" s="96"/>
+      <c r="V9" s="97"/>
+      <c r="W9" s="95"/>
+      <c r="X9" s="96"/>
+      <c r="Y9" s="97"/>
+      <c r="Z9" s="95"/>
+      <c r="AA9" s="98"/>
       <c r="AB9" s="94"/>
-      <c r="AC9" s="92"/>
-      <c r="AD9" s="95"/>
-      <c r="AE9" s="91"/>
-      <c r="AF9" s="92"/>
-      <c r="AG9" s="93"/>
-      <c r="AH9" s="94"/>
-      <c r="AI9" s="92"/>
-      <c r="AJ9" s="93"/>
-      <c r="AK9" s="94"/>
-      <c r="AL9" s="92"/>
-      <c r="AM9" s="95"/>
-    </row>
-    <row r="10" spans="1:39" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="124"/>
-      <c r="C10" s="102">
+      <c r="AC9" s="95"/>
+      <c r="AD9" s="96"/>
+      <c r="AE9" s="97"/>
+      <c r="AF9" s="95"/>
+      <c r="AG9" s="96"/>
+      <c r="AH9" s="97"/>
+      <c r="AI9" s="95"/>
+      <c r="AJ9" s="96"/>
+      <c r="AK9" s="97"/>
+      <c r="AL9" s="95"/>
+      <c r="AM9" s="98"/>
+      <c r="AN9" s="94"/>
+      <c r="AO9" s="95"/>
+      <c r="AP9" s="96"/>
+      <c r="AQ9" s="97"/>
+      <c r="AR9" s="95"/>
+      <c r="AS9" s="96"/>
+      <c r="AT9" s="97"/>
+      <c r="AU9" s="95"/>
+      <c r="AV9" s="96"/>
+      <c r="AW9" s="97"/>
+      <c r="AX9" s="95"/>
+      <c r="AY9" s="98"/>
+    </row>
+    <row r="10" spans="1:51" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="120"/>
+      <c r="C10" s="105">
         <v>0</v>
       </c>
-      <c r="D10" s="96"/>
-      <c r="E10" s="97"/>
-      <c r="F10" s="98"/>
-      <c r="G10" s="99"/>
-      <c r="H10" s="97"/>
-      <c r="I10" s="98"/>
-      <c r="J10" s="99"/>
-      <c r="K10" s="97"/>
-      <c r="L10" s="100"/>
-      <c r="M10" s="96"/>
-      <c r="N10" s="97"/>
-      <c r="O10" s="98"/>
+      <c r="D10" s="99"/>
+      <c r="E10" s="100"/>
+      <c r="F10" s="101"/>
+      <c r="G10" s="102"/>
+      <c r="H10" s="100"/>
+      <c r="I10" s="101"/>
+      <c r="J10" s="102"/>
+      <c r="K10" s="100"/>
+      <c r="L10" s="101"/>
+      <c r="M10" s="102"/>
+      <c r="N10" s="100"/>
+      <c r="O10" s="103"/>
       <c r="P10" s="99"/>
-      <c r="Q10" s="97"/>
-      <c r="R10" s="98"/>
-      <c r="S10" s="99"/>
-      <c r="T10" s="97"/>
-      <c r="U10" s="100"/>
-      <c r="V10" s="96"/>
-      <c r="W10" s="97"/>
-      <c r="X10" s="98"/>
-      <c r="Y10" s="99"/>
-      <c r="Z10" s="97"/>
-      <c r="AA10" s="98"/>
+      <c r="Q10" s="100"/>
+      <c r="R10" s="101"/>
+      <c r="S10" s="102"/>
+      <c r="T10" s="100"/>
+      <c r="U10" s="101"/>
+      <c r="V10" s="102"/>
+      <c r="W10" s="100"/>
+      <c r="X10" s="101"/>
+      <c r="Y10" s="102"/>
+      <c r="Z10" s="100"/>
+      <c r="AA10" s="103"/>
       <c r="AB10" s="99"/>
-      <c r="AC10" s="97"/>
-      <c r="AD10" s="100"/>
-      <c r="AE10" s="96"/>
-      <c r="AF10" s="97"/>
-      <c r="AG10" s="98"/>
-      <c r="AH10" s="99"/>
-      <c r="AI10" s="97"/>
-      <c r="AJ10" s="98"/>
-      <c r="AK10" s="99"/>
-      <c r="AL10" s="97"/>
-      <c r="AM10" s="100"/>
-    </row>
-    <row r="11" spans="1:39" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="25" t="s">
+      <c r="AC10" s="100"/>
+      <c r="AD10" s="101"/>
+      <c r="AE10" s="102"/>
+      <c r="AF10" s="100"/>
+      <c r="AG10" s="101"/>
+      <c r="AH10" s="102"/>
+      <c r="AI10" s="100"/>
+      <c r="AJ10" s="101"/>
+      <c r="AK10" s="102"/>
+      <c r="AL10" s="100"/>
+      <c r="AM10" s="103"/>
+      <c r="AN10" s="99"/>
+      <c r="AO10" s="100"/>
+      <c r="AP10" s="101"/>
+      <c r="AQ10" s="102"/>
+      <c r="AR10" s="100"/>
+      <c r="AS10" s="101"/>
+      <c r="AT10" s="102"/>
+      <c r="AU10" s="100"/>
+      <c r="AV10" s="101"/>
+      <c r="AW10" s="102"/>
+      <c r="AX10" s="100"/>
+      <c r="AY10" s="103"/>
+    </row>
+    <row r="11" spans="1:51" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="121" t="str">
+        <f>Donnees!$C$24</f>
+        <v>Installation</v>
+      </c>
+      <c r="C11" s="104">
+        <v>0</v>
+      </c>
+      <c r="D11" s="94"/>
+      <c r="E11" s="95"/>
+      <c r="F11" s="96"/>
+      <c r="G11" s="97"/>
+      <c r="H11" s="95"/>
+      <c r="I11" s="96"/>
+      <c r="J11" s="97"/>
+      <c r="K11" s="95"/>
+      <c r="L11" s="96"/>
+      <c r="M11" s="97"/>
+      <c r="N11" s="95"/>
+      <c r="O11" s="98"/>
+      <c r="P11" s="94"/>
+      <c r="Q11" s="95"/>
+      <c r="R11" s="96"/>
+      <c r="S11" s="97"/>
+      <c r="T11" s="95"/>
+      <c r="U11" s="96"/>
+      <c r="V11" s="97"/>
+      <c r="W11" s="95"/>
+      <c r="X11" s="96"/>
+      <c r="Y11" s="97"/>
+      <c r="Z11" s="95"/>
+      <c r="AA11" s="98"/>
+      <c r="AB11" s="94"/>
+      <c r="AC11" s="95"/>
+      <c r="AD11" s="96"/>
+      <c r="AE11" s="97"/>
+      <c r="AF11" s="95"/>
+      <c r="AG11" s="96"/>
+      <c r="AH11" s="97"/>
+      <c r="AI11" s="95"/>
+      <c r="AJ11" s="96"/>
+      <c r="AK11" s="97"/>
+      <c r="AL11" s="95"/>
+      <c r="AM11" s="98"/>
+      <c r="AN11" s="94"/>
+      <c r="AO11" s="95"/>
+      <c r="AP11" s="96"/>
+      <c r="AQ11" s="97"/>
+      <c r="AR11" s="95"/>
+      <c r="AS11" s="96"/>
+      <c r="AT11" s="97"/>
+      <c r="AU11" s="95"/>
+      <c r="AV11" s="96"/>
+      <c r="AW11" s="97"/>
+      <c r="AX11" s="95"/>
+      <c r="AY11" s="98"/>
+    </row>
+    <row r="12" spans="1:51" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="120"/>
+      <c r="C12" s="105">
+        <v>0</v>
+      </c>
+      <c r="D12" s="99"/>
+      <c r="E12" s="100"/>
+      <c r="F12" s="101"/>
+      <c r="G12" s="102"/>
+      <c r="H12" s="100"/>
+      <c r="I12" s="101"/>
+      <c r="J12" s="102"/>
+      <c r="K12" s="100"/>
+      <c r="L12" s="101"/>
+      <c r="M12" s="102"/>
+      <c r="N12" s="100"/>
+      <c r="O12" s="103"/>
+      <c r="P12" s="99"/>
+      <c r="Q12" s="100"/>
+      <c r="R12" s="101"/>
+      <c r="S12" s="102"/>
+      <c r="T12" s="100"/>
+      <c r="U12" s="101"/>
+      <c r="V12" s="102"/>
+      <c r="W12" s="100"/>
+      <c r="X12" s="101"/>
+      <c r="Y12" s="102"/>
+      <c r="Z12" s="100"/>
+      <c r="AA12" s="103"/>
+      <c r="AB12" s="99"/>
+      <c r="AC12" s="100"/>
+      <c r="AD12" s="101"/>
+      <c r="AE12" s="102"/>
+      <c r="AF12" s="100"/>
+      <c r="AG12" s="101"/>
+      <c r="AH12" s="102"/>
+      <c r="AI12" s="100"/>
+      <c r="AJ12" s="101"/>
+      <c r="AK12" s="102"/>
+      <c r="AL12" s="100"/>
+      <c r="AM12" s="103"/>
+      <c r="AN12" s="99"/>
+      <c r="AO12" s="100"/>
+      <c r="AP12" s="101"/>
+      <c r="AQ12" s="102"/>
+      <c r="AR12" s="100"/>
+      <c r="AS12" s="101"/>
+      <c r="AT12" s="102"/>
+      <c r="AU12" s="100"/>
+      <c r="AV12" s="101"/>
+      <c r="AW12" s="102"/>
+      <c r="AX12" s="100"/>
+      <c r="AY12" s="103"/>
+    </row>
+    <row r="13" spans="1:51" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="121" t="str">
+        <f>Donnees!$C$25</f>
+        <v>Recherche</v>
+      </c>
+      <c r="C13" s="104">
+        <v>0</v>
+      </c>
+      <c r="D13" s="94"/>
+      <c r="E13" s="95"/>
+      <c r="F13" s="96"/>
+      <c r="G13" s="97"/>
+      <c r="H13" s="95"/>
+      <c r="I13" s="96"/>
+      <c r="J13" s="97"/>
+      <c r="K13" s="95"/>
+      <c r="L13" s="96"/>
+      <c r="M13" s="97"/>
+      <c r="N13" s="95"/>
+      <c r="O13" s="98"/>
+      <c r="P13" s="94"/>
+      <c r="Q13" s="95"/>
+      <c r="R13" s="96"/>
+      <c r="S13" s="97"/>
+      <c r="T13" s="95"/>
+      <c r="U13" s="96"/>
+      <c r="V13" s="97"/>
+      <c r="W13" s="95"/>
+      <c r="X13" s="96"/>
+      <c r="Y13" s="97"/>
+      <c r="Z13" s="95"/>
+      <c r="AA13" s="98"/>
+      <c r="AB13" s="94"/>
+      <c r="AC13" s="95"/>
+      <c r="AD13" s="96"/>
+      <c r="AE13" s="97"/>
+      <c r="AF13" s="95"/>
+      <c r="AG13" s="96"/>
+      <c r="AH13" s="97"/>
+      <c r="AI13" s="95"/>
+      <c r="AJ13" s="96"/>
+      <c r="AK13" s="97"/>
+      <c r="AL13" s="95"/>
+      <c r="AM13" s="98"/>
+      <c r="AN13" s="94"/>
+      <c r="AO13" s="95"/>
+      <c r="AP13" s="96"/>
+      <c r="AQ13" s="97"/>
+      <c r="AR13" s="95"/>
+      <c r="AS13" s="96"/>
+      <c r="AT13" s="97"/>
+      <c r="AU13" s="95"/>
+      <c r="AV13" s="96"/>
+      <c r="AW13" s="97"/>
+      <c r="AX13" s="95"/>
+      <c r="AY13" s="98"/>
+    </row>
+    <row r="14" spans="1:51" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="120"/>
+      <c r="C14" s="105">
+        <v>0</v>
+      </c>
+      <c r="D14" s="99"/>
+      <c r="E14" s="100"/>
+      <c r="F14" s="101"/>
+      <c r="G14" s="102"/>
+      <c r="H14" s="100"/>
+      <c r="I14" s="101"/>
+      <c r="J14" s="102"/>
+      <c r="K14" s="100"/>
+      <c r="L14" s="101"/>
+      <c r="M14" s="102"/>
+      <c r="N14" s="100"/>
+      <c r="O14" s="103"/>
+      <c r="P14" s="99"/>
+      <c r="Q14" s="100"/>
+      <c r="R14" s="101"/>
+      <c r="S14" s="102"/>
+      <c r="T14" s="100"/>
+      <c r="U14" s="101"/>
+      <c r="V14" s="102"/>
+      <c r="W14" s="100"/>
+      <c r="X14" s="101"/>
+      <c r="Y14" s="102"/>
+      <c r="Z14" s="100"/>
+      <c r="AA14" s="103"/>
+      <c r="AB14" s="99"/>
+      <c r="AC14" s="100"/>
+      <c r="AD14" s="101"/>
+      <c r="AE14" s="102"/>
+      <c r="AF14" s="100"/>
+      <c r="AG14" s="101"/>
+      <c r="AH14" s="102"/>
+      <c r="AI14" s="100"/>
+      <c r="AJ14" s="101"/>
+      <c r="AK14" s="102"/>
+      <c r="AL14" s="100"/>
+      <c r="AM14" s="103"/>
+      <c r="AN14" s="99"/>
+      <c r="AO14" s="100"/>
+      <c r="AP14" s="101"/>
+      <c r="AQ14" s="102"/>
+      <c r="AR14" s="100"/>
+      <c r="AS14" s="101"/>
+      <c r="AT14" s="102"/>
+      <c r="AU14" s="100"/>
+      <c r="AV14" s="101"/>
+      <c r="AW14" s="102"/>
+      <c r="AX14" s="100"/>
+      <c r="AY14" s="103"/>
+    </row>
+    <row r="15" spans="1:51" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="27">
-        <f>SUM($C$3,$C$5,$C$7,$C$9)</f>
+      <c r="C15" s="27">
+        <f>SUM($C$3,$C$5,$C$7,$C$9,$C$11,$C$13)</f>
         <v>0</v>
       </c>
-      <c r="D11" s="103"/>
-      <c r="E11" s="104"/>
-      <c r="F11" s="104"/>
-      <c r="G11" s="104"/>
-      <c r="H11" s="104"/>
-      <c r="I11" s="104"/>
-      <c r="J11" s="104"/>
-      <c r="K11" s="104"/>
-      <c r="L11" s="105"/>
-      <c r="M11" s="103"/>
-      <c r="N11" s="104"/>
-      <c r="O11" s="104"/>
-      <c r="P11" s="104"/>
-      <c r="Q11" s="104"/>
-      <c r="R11" s="104"/>
-      <c r="S11" s="104"/>
-      <c r="T11" s="104"/>
-      <c r="U11" s="105"/>
-      <c r="V11" s="103"/>
-      <c r="W11" s="104"/>
-      <c r="X11" s="104"/>
-      <c r="Y11" s="104"/>
-      <c r="Z11" s="104"/>
-      <c r="AA11" s="104"/>
-      <c r="AB11" s="104"/>
-      <c r="AC11" s="104"/>
-      <c r="AD11" s="105"/>
-      <c r="AE11" s="103"/>
-      <c r="AF11" s="104"/>
-      <c r="AG11" s="104"/>
-      <c r="AH11" s="104"/>
-      <c r="AI11" s="104"/>
-      <c r="AJ11" s="104"/>
-      <c r="AK11" s="104"/>
-      <c r="AL11" s="104"/>
-      <c r="AM11" s="105"/>
-    </row>
-    <row r="12" spans="1:39" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="26" t="s">
+      <c r="D15" s="106"/>
+      <c r="E15" s="107"/>
+      <c r="F15" s="107"/>
+      <c r="G15" s="107"/>
+      <c r="H15" s="107"/>
+      <c r="I15" s="107"/>
+      <c r="J15" s="107"/>
+      <c r="K15" s="107"/>
+      <c r="L15" s="107"/>
+      <c r="M15" s="107"/>
+      <c r="N15" s="107"/>
+      <c r="O15" s="108"/>
+      <c r="P15" s="106"/>
+      <c r="Q15" s="107"/>
+      <c r="R15" s="107"/>
+      <c r="S15" s="107"/>
+      <c r="T15" s="107"/>
+      <c r="U15" s="107"/>
+      <c r="V15" s="107"/>
+      <c r="W15" s="107"/>
+      <c r="X15" s="107"/>
+      <c r="Y15" s="107"/>
+      <c r="Z15" s="107"/>
+      <c r="AA15" s="108"/>
+      <c r="AB15" s="106"/>
+      <c r="AC15" s="107"/>
+      <c r="AD15" s="107"/>
+      <c r="AE15" s="107"/>
+      <c r="AF15" s="107"/>
+      <c r="AG15" s="107"/>
+      <c r="AH15" s="107"/>
+      <c r="AI15" s="107"/>
+      <c r="AJ15" s="107"/>
+      <c r="AK15" s="107"/>
+      <c r="AL15" s="107"/>
+      <c r="AM15" s="108"/>
+      <c r="AN15" s="106"/>
+      <c r="AO15" s="107"/>
+      <c r="AP15" s="107"/>
+      <c r="AQ15" s="107"/>
+      <c r="AR15" s="107"/>
+      <c r="AS15" s="107"/>
+      <c r="AT15" s="107"/>
+      <c r="AU15" s="107"/>
+      <c r="AV15" s="107"/>
+      <c r="AW15" s="107"/>
+      <c r="AX15" s="107"/>
+      <c r="AY15" s="108"/>
+    </row>
+    <row r="16" spans="1:51" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="109"/>
+      <c r="B16" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="C12" s="28">
-        <f>SUM($C$4,$C$6,$C$8,$C$10)</f>
+      <c r="C16" s="28">
+        <f>SUM($C$4,$C$6,$C$8,$C$10,$C$12,$C$14)</f>
         <v>0</v>
       </c>
-      <c r="D12" s="106"/>
-      <c r="E12" s="107"/>
-      <c r="F12" s="107"/>
-      <c r="G12" s="107"/>
-      <c r="H12" s="107"/>
-      <c r="I12" s="107"/>
-      <c r="J12" s="107"/>
-      <c r="K12" s="107"/>
-      <c r="L12" s="108"/>
-      <c r="M12" s="106"/>
-      <c r="N12" s="107"/>
-      <c r="O12" s="107"/>
-      <c r="P12" s="107"/>
-      <c r="Q12" s="107"/>
-      <c r="R12" s="107"/>
-      <c r="S12" s="107"/>
-      <c r="T12" s="107"/>
-      <c r="U12" s="108"/>
-      <c r="V12" s="106"/>
-      <c r="W12" s="107"/>
-      <c r="X12" s="107"/>
-      <c r="Y12" s="107"/>
-      <c r="Z12" s="107"/>
-      <c r="AA12" s="107"/>
-      <c r="AB12" s="107"/>
-      <c r="AC12" s="107"/>
-      <c r="AD12" s="108"/>
-      <c r="AE12" s="106"/>
-      <c r="AF12" s="107"/>
-      <c r="AG12" s="107"/>
-      <c r="AH12" s="107"/>
-      <c r="AI12" s="107"/>
-      <c r="AJ12" s="107"/>
-      <c r="AK12" s="107"/>
-      <c r="AL12" s="107"/>
-      <c r="AM12" s="108"/>
-    </row>
-    <row r="14" spans="1:39" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C14" s="109"/>
-    </row>
-    <row r="15" spans="1:39" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C15" s="109"/>
-    </row>
-    <row r="16" spans="1:39" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="110"/>
+      <c r="D16" s="110"/>
+      <c r="E16" s="111"/>
+      <c r="F16" s="111"/>
+      <c r="G16" s="111"/>
+      <c r="H16" s="111"/>
+      <c r="I16" s="111"/>
+      <c r="J16" s="111"/>
+      <c r="K16" s="111"/>
+      <c r="L16" s="111"/>
+      <c r="M16" s="111"/>
+      <c r="N16" s="111"/>
+      <c r="O16" s="112"/>
+      <c r="P16" s="110"/>
+      <c r="Q16" s="111"/>
+      <c r="R16" s="111"/>
+      <c r="S16" s="111"/>
+      <c r="T16" s="111"/>
+      <c r="U16" s="111"/>
+      <c r="V16" s="111"/>
+      <c r="W16" s="111"/>
+      <c r="X16" s="111"/>
+      <c r="Y16" s="111"/>
+      <c r="Z16" s="111"/>
+      <c r="AA16" s="112"/>
+      <c r="AB16" s="110"/>
+      <c r="AC16" s="111"/>
+      <c r="AD16" s="111"/>
+      <c r="AE16" s="111"/>
+      <c r="AF16" s="111"/>
+      <c r="AG16" s="111"/>
+      <c r="AH16" s="111"/>
+      <c r="AI16" s="111"/>
+      <c r="AJ16" s="111"/>
+      <c r="AK16" s="111"/>
+      <c r="AL16" s="111"/>
+      <c r="AM16" s="112"/>
+      <c r="AN16" s="110"/>
+      <c r="AO16" s="111"/>
+      <c r="AP16" s="111"/>
+      <c r="AQ16" s="111"/>
+      <c r="AR16" s="111"/>
+      <c r="AS16" s="111"/>
+      <c r="AT16" s="111"/>
+      <c r="AU16" s="111"/>
+      <c r="AV16" s="111"/>
+      <c r="AW16" s="111"/>
+      <c r="AX16" s="111"/>
+      <c r="AY16" s="112"/>
     </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" selectLockedCells="1"/>
-  <mergeCells count="8">
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="D2:L2"/>
-    <mergeCell ref="M2:U2"/>
-    <mergeCell ref="V2:AD2"/>
-    <mergeCell ref="AE2:AM2"/>
+  <mergeCells count="10">
+    <mergeCell ref="D2:O2"/>
+    <mergeCell ref="P2:AA2"/>
+    <mergeCell ref="AB2:AM2"/>
+    <mergeCell ref="AN2:AY2"/>
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="B5:B6"/>
     <mergeCell ref="B7:B8"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="B13:B14"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="DureeTropLongue" error="Cette durée est invalide: ce n'est pas un chiffre entier positif ou elle dépasse la &quot;Durée totale&quot; définie plus haut ..." sqref="C11">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="DureeTropLongue" error="Cette durée est invalide: ce n'est pas un chiffre entier positif ou elle dépasse la &quot;Durée totale&quot; définie plus haut ..." sqref="C15">
       <formula1>0</formula1>
       <formula2>$C$9</formula2>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3737,7 +4130,7 @@
     </row>
     <row r="3" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="19"/>
-      <c r="B3" s="121" t="s">
+      <c r="B3" s="125" t="s">
         <v>21</v>
       </c>
       <c r="C3" s="16">
@@ -3746,7 +4139,7 @@
     </row>
     <row r="4" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="19"/>
-      <c r="B4" s="126"/>
+      <c r="B4" s="127"/>
       <c r="C4" s="22">
         <v>0</v>
       </c>
@@ -4167,571 +4560,6 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Feuil5"/>
-  <dimension ref="A1:I57"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="21.42578125" style="29" customWidth="1"/>
-    <col min="2" max="2" width="8.5703125" style="29" customWidth="1"/>
-    <col min="3" max="3" width="87" style="29" customWidth="1"/>
-    <col min="4" max="4" width="44.140625" style="29" customWidth="1"/>
-    <col min="5" max="16384" width="11.42578125" style="29"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B1" s="7">
-        <v>1</v>
-      </c>
-      <c r="C1" s="17"/>
-      <c r="D1" s="87"/>
-    </row>
-    <row r="2" spans="1:4" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" s="53" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="5"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-    </row>
-    <row r="4" spans="1:4" s="53" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-    </row>
-    <row r="5" spans="1:4" s="53" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-    </row>
-    <row r="6" spans="1:4" s="53" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-    </row>
-    <row r="7" spans="1:4" s="53" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
-    </row>
-    <row r="8" spans="1:4" s="53" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-    </row>
-    <row r="9" spans="1:4" s="53" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
-    </row>
-    <row r="10" spans="1:4" s="53" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
-    </row>
-    <row r="11" spans="1:4" s="53" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-    </row>
-    <row r="12" spans="1:4" s="53" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="3"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
-    </row>
-    <row r="13" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13" s="12">
-        <f>SUM(B3:B12)</f>
-        <v>0</v>
-      </c>
-      <c r="C13" s="111" t="s">
-        <v>35</v>
-      </c>
-      <c r="D13" s="13"/>
-    </row>
-    <row r="14" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="14"/>
-      <c r="B14" s="14"/>
-      <c r="C14" s="14"/>
-      <c r="D14" s="14"/>
-    </row>
-    <row r="15" spans="1:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15" s="7">
-        <v>2</v>
-      </c>
-      <c r="C15" s="17"/>
-      <c r="D15" s="87"/>
-    </row>
-    <row r="16" spans="1:4" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="B16" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="5"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="1"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="10"/>
-      <c r="D18" s="10"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="1"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="10"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="20"/>
-      <c r="F19" s="20"/>
-      <c r="G19" s="20"/>
-      <c r="H19" s="20"/>
-      <c r="I19" s="20"/>
-    </row>
-    <row r="20" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="1"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="10"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="20"/>
-      <c r="F20" s="32"/>
-      <c r="G20" s="33"/>
-      <c r="H20" s="34"/>
-      <c r="I20" s="20"/>
-    </row>
-    <row r="21" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A21" s="1"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="10"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="20"/>
-      <c r="F21" s="35"/>
-      <c r="G21" s="31"/>
-      <c r="H21" s="31"/>
-      <c r="I21" s="20"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="1"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="10"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="20"/>
-      <c r="F22" s="37"/>
-      <c r="G22" s="38"/>
-      <c r="H22" s="38"/>
-      <c r="I22" s="20"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="10"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="20"/>
-      <c r="F23" s="37"/>
-      <c r="G23" s="38"/>
-      <c r="H23" s="38"/>
-      <c r="I23" s="20"/>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="2"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="10"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="20"/>
-      <c r="F24" s="37"/>
-      <c r="G24" s="38"/>
-      <c r="H24" s="38"/>
-      <c r="I24" s="20"/>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="2"/>
-      <c r="B25" s="2"/>
-      <c r="C25" s="10"/>
-      <c r="D25" s="10"/>
-      <c r="E25" s="20"/>
-      <c r="F25" s="37"/>
-      <c r="G25" s="38"/>
-      <c r="H25" s="38"/>
-      <c r="I25" s="20"/>
-    </row>
-    <row r="26" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="3"/>
-      <c r="B26" s="3"/>
-      <c r="C26" s="11"/>
-      <c r="D26" s="11"/>
-      <c r="E26" s="20"/>
-      <c r="F26" s="37"/>
-      <c r="G26" s="38"/>
-      <c r="H26" s="38"/>
-      <c r="I26" s="20"/>
-    </row>
-    <row r="27" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="B27" s="12">
-        <f>SUM(B17:B26)</f>
-        <v>0</v>
-      </c>
-      <c r="C27" s="111" t="s">
-        <v>35</v>
-      </c>
-      <c r="D27" s="13"/>
-      <c r="E27" s="20"/>
-      <c r="F27" s="37"/>
-      <c r="G27" s="38"/>
-      <c r="H27" s="38"/>
-      <c r="I27" s="20"/>
-    </row>
-    <row r="28" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="14"/>
-      <c r="B28" s="14"/>
-      <c r="C28" s="14"/>
-      <c r="D28" s="14"/>
-      <c r="E28" s="20"/>
-      <c r="F28" s="37"/>
-      <c r="G28" s="38"/>
-      <c r="H28" s="38"/>
-      <c r="I28" s="20"/>
-    </row>
-    <row r="29" spans="1:9" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B29" s="7">
-        <v>3</v>
-      </c>
-      <c r="C29" s="17"/>
-      <c r="D29" s="87"/>
-      <c r="E29" s="20"/>
-      <c r="F29" s="37"/>
-      <c r="G29" s="38"/>
-      <c r="H29" s="38"/>
-      <c r="I29" s="20"/>
-    </row>
-    <row r="30" spans="1:9" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="B30" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="C30" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D30" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E30" s="20"/>
-      <c r="F30" s="39"/>
-      <c r="G30" s="40"/>
-      <c r="H30" s="40"/>
-      <c r="I30" s="20"/>
-    </row>
-    <row r="31" spans="1:9" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A31" s="5"/>
-      <c r="B31" s="4"/>
-      <c r="C31" s="9"/>
-      <c r="D31" s="9"/>
-      <c r="E31" s="20"/>
-      <c r="F31" s="41"/>
-      <c r="G31" s="41"/>
-      <c r="H31" s="41"/>
-      <c r="I31" s="20"/>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="1"/>
-      <c r="B32" s="2"/>
-      <c r="C32" s="10"/>
-      <c r="D32" s="10"/>
-      <c r="E32" s="20"/>
-      <c r="F32" s="20"/>
-      <c r="G32" s="20"/>
-      <c r="H32" s="20"/>
-      <c r="I32" s="20"/>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="1"/>
-      <c r="B33" s="2"/>
-      <c r="C33" s="10"/>
-      <c r="D33" s="10"/>
-      <c r="E33" s="20"/>
-      <c r="F33" s="20"/>
-      <c r="G33" s="20"/>
-      <c r="H33" s="20"/>
-      <c r="I33" s="20"/>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34" s="1"/>
-      <c r="B34" s="2"/>
-      <c r="C34" s="10"/>
-      <c r="D34" s="10"/>
-      <c r="E34" s="20"/>
-      <c r="F34" s="20"/>
-      <c r="G34" s="20"/>
-      <c r="H34" s="20"/>
-      <c r="I34" s="20"/>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35" s="1"/>
-      <c r="B35" s="2"/>
-      <c r="C35" s="10"/>
-      <c r="D35" s="10"/>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A36" s="1"/>
-      <c r="B36" s="2"/>
-      <c r="C36" s="10"/>
-      <c r="D36" s="10"/>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A37" s="2"/>
-      <c r="B37" s="2"/>
-      <c r="C37" s="10"/>
-      <c r="D37" s="10"/>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A38" s="2"/>
-      <c r="B38" s="2"/>
-      <c r="C38" s="10"/>
-      <c r="D38" s="10"/>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A39" s="2"/>
-      <c r="B39" s="2"/>
-      <c r="C39" s="10"/>
-      <c r="D39" s="10"/>
-    </row>
-    <row r="40" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="3"/>
-      <c r="B40" s="3"/>
-      <c r="C40" s="11"/>
-      <c r="D40" s="11"/>
-    </row>
-    <row r="41" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="B41" s="12">
-        <f>SUM(B31:B40)</f>
-        <v>0</v>
-      </c>
-      <c r="C41" s="111" t="s">
-        <v>35</v>
-      </c>
-      <c r="D41" s="13"/>
-    </row>
-    <row r="42" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="14"/>
-      <c r="B42" s="14"/>
-      <c r="C42" s="14"/>
-      <c r="D42" s="14"/>
-    </row>
-    <row r="43" spans="1:9" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B43" s="7">
-        <v>4</v>
-      </c>
-      <c r="C43" s="17"/>
-      <c r="D43" s="87"/>
-    </row>
-    <row r="44" spans="1:9" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="B44" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="C44" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D44" s="8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A45" s="5"/>
-      <c r="B45" s="4"/>
-      <c r="C45" s="9"/>
-      <c r="D45" s="9"/>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A46" s="1"/>
-      <c r="B46" s="2"/>
-      <c r="C46" s="10"/>
-      <c r="D46" s="10"/>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A47" s="1"/>
-      <c r="B47" s="2"/>
-      <c r="C47" s="10"/>
-      <c r="D47" s="10"/>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A48" s="1"/>
-      <c r="B48" s="2"/>
-      <c r="C48" s="10"/>
-      <c r="D48" s="10"/>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="1"/>
-      <c r="B49" s="2"/>
-      <c r="C49" s="10"/>
-      <c r="D49" s="10"/>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" s="1"/>
-      <c r="B50" s="2"/>
-      <c r="C50" s="10"/>
-      <c r="D50" s="10"/>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" s="2"/>
-      <c r="B51" s="2"/>
-      <c r="C51" s="10"/>
-      <c r="D51" s="10"/>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" s="2"/>
-      <c r="B52" s="2"/>
-      <c r="C52" s="10"/>
-      <c r="D52" s="10"/>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" s="2"/>
-      <c r="B53" s="2"/>
-      <c r="C53" s="10"/>
-      <c r="D53" s="10"/>
-    </row>
-    <row r="54" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="3"/>
-      <c r="B54" s="3"/>
-      <c r="C54" s="11"/>
-      <c r="D54" s="11"/>
-    </row>
-    <row r="55" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="B55" s="12">
-        <f>SUM(B45:B54)</f>
-        <v>0</v>
-      </c>
-      <c r="C55" s="111" t="s">
-        <v>35</v>
-      </c>
-      <c r="D55" s="13"/>
-    </row>
-    <row r="56" spans="1:4" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A56" s="14"/>
-      <c r="B56" s="14"/>
-      <c r="C56" s="14"/>
-      <c r="D56" s="14"/>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57" s="112" t="s">
-        <v>36</v>
-      </c>
-    </row>
-  </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" selectLockedCells="1"/>
-  <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A3:A12 A17:A26 A31:A40 A45:A54">
-      <formula1>lstTasks</formula1>
-    </dataValidation>
-    <dataValidation type="whole" errorStyle="warning" allowBlank="1" showErrorMessage="1" errorTitle="Dépassement de durée" error="Le nombre de minutes introduites dépasse la durée d'une période. Veuillez confirmer ... Le calcul du total sera juste dans tous les cas._x000a_" sqref="B13 B27 B41 B55">
-      <formula1>0</formula1>
-      <formula2>NbPerWeek * NbQuartPer</formula2>
-    </dataValidation>
-    <dataValidation type="whole" errorStyle="warning" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Durée en 1/3 de période" error="Le nombre doit être de type entier" sqref="B3:B12 F22:F29 B17:B26 B31:B40 B45:B54">
-      <formula1>0</formula1>
-    </dataValidation>
-    <dataValidation type="whole" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Dépassement de durée" error="Le nombre de minutes introduites dépasse la durée d'une période. Veuillez confirmer ... Le calcul du total sera juste dans tous les cas._x000a_" sqref="F30">
-      <formula1>0</formula1>
-      <formula2>DureePeriode-1</formula2>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
-  <controls>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="41985" r:id="rId4" name="btnImportPlanification">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>590550</xdr:colOff>
-                <xdr:row>0</xdr:row>
-                <xdr:rowOff>180975</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>152400</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="41985" r:id="rId4" name="btnImportPlanification"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-  </controls>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Feuil8"/>
   <dimension ref="A1:I39"/>
   <sheetViews>
@@ -5109,13 +4937,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Feuil9"/>
   <dimension ref="A1:I77"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="B61" sqref="B61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -5158,36 +4986,36 @@
     </row>
     <row r="3" spans="1:4" s="53" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B3" s="4">
         <v>3</v>
       </c>
-      <c r="C3" s="114" t="s">
-        <v>37</v>
+      <c r="C3" s="113" t="s">
+        <v>39</v>
       </c>
       <c r="D3" s="9"/>
     </row>
     <row r="4" spans="1:4" s="53" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="B4" s="2">
         <v>1</v>
       </c>
-      <c r="C4" s="115" t="s">
-        <v>38</v>
+      <c r="C4" s="114" t="s">
+        <v>40</v>
       </c>
       <c r="D4" s="10"/>
     </row>
     <row r="5" spans="1:4" s="53" customFormat="1" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="B5" s="2">
-        <v>1</v>
-      </c>
-      <c r="C5" s="115" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="114" t="s">
         <v>41</v>
       </c>
       <c r="D5" s="10" t="s">
@@ -5199,21 +5027,21 @@
         <v>28</v>
       </c>
       <c r="B6" s="2">
-        <v>2</v>
-      </c>
-      <c r="C6" s="115" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="114" t="s">
         <v>43</v>
       </c>
       <c r="D6" s="10"/>
     </row>
     <row r="7" spans="1:4" s="53" customFormat="1" ht="27" x14ac:dyDescent="0.25">
-      <c r="A7" s="127" t="s">
-        <v>40</v>
+      <c r="A7" s="115" t="s">
+        <v>32</v>
       </c>
       <c r="B7" s="2">
-        <v>2</v>
-      </c>
-      <c r="C7" s="115" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="114" t="s">
         <v>44</v>
       </c>
       <c r="D7" s="10"/>
@@ -5284,10 +5112,10 @@
       </c>
       <c r="B18" s="48">
         <f>SUM(B3:B17)</f>
-        <v>9</v>
-      </c>
-      <c r="C18" s="113" t="s">
-        <v>35</v>
+        <v>12</v>
+      </c>
+      <c r="C18" s="88" t="s">
+        <v>33</v>
       </c>
       <c r="D18" s="49"/>
     </row>
@@ -5326,22 +5154,40 @@
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="5"/>
-      <c r="B22" s="4"/>
-      <c r="C22" s="9"/>
+    <row r="22" spans="1:9" ht="27" x14ac:dyDescent="0.25">
+      <c r="A22" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B22" s="4">
+        <v>3</v>
+      </c>
+      <c r="C22" s="113" t="s">
+        <v>45</v>
+      </c>
       <c r="D22" s="9"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="1"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="10"/>
+    <row r="23" spans="1:9" ht="27" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B23" s="2">
+        <v>6</v>
+      </c>
+      <c r="C23" s="114" t="s">
+        <v>46</v>
+      </c>
       <c r="D23" s="10"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="1"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="10"/>
+      <c r="A24" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B24" s="2">
+        <v>1</v>
+      </c>
+      <c r="C24" s="114" t="s">
+        <v>49</v>
+      </c>
       <c r="D24" s="10"/>
       <c r="E24" s="20"/>
       <c r="F24" s="20"/>
@@ -5350,9 +5196,15 @@
       <c r="I24" s="20"/>
     </row>
     <row r="25" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="1"/>
-      <c r="B25" s="2"/>
-      <c r="C25" s="10"/>
+      <c r="A25" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B25" s="2">
+        <v>1</v>
+      </c>
+      <c r="C25" s="114" t="s">
+        <v>50</v>
+      </c>
       <c r="D25" s="10"/>
       <c r="E25" s="20"/>
       <c r="F25" s="32"/>
@@ -5361,9 +5213,15 @@
       <c r="I25" s="20"/>
     </row>
     <row r="26" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A26" s="1"/>
-      <c r="B26" s="2"/>
-      <c r="C26" s="10"/>
+      <c r="A26" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B26" s="2">
+        <v>1</v>
+      </c>
+      <c r="C26" s="114" t="s">
+        <v>51</v>
+      </c>
       <c r="D26" s="10"/>
       <c r="E26" s="20"/>
       <c r="F26" s="35"/>
@@ -5487,10 +5345,10 @@
       </c>
       <c r="B37" s="48">
         <f>SUM(B22:B36)</f>
-        <v>0</v>
-      </c>
-      <c r="C37" s="113" t="s">
-        <v>35</v>
+        <v>12</v>
+      </c>
+      <c r="C37" s="88" t="s">
+        <v>33</v>
       </c>
       <c r="D37" s="49"/>
       <c r="E37" s="20"/>
@@ -5545,27 +5403,53 @@
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A41" s="5"/>
-      <c r="B41" s="4"/>
-      <c r="C41" s="9"/>
-      <c r="D41" s="9"/>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A42" s="1"/>
-      <c r="B42" s="2"/>
-      <c r="C42" s="10"/>
+      <c r="A41" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B41" s="4">
+        <v>4</v>
+      </c>
+      <c r="C41" s="113" t="s">
+        <v>52</v>
+      </c>
+      <c r="D41" s="116" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" ht="27" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B42" s="2">
+        <v>5</v>
+      </c>
+      <c r="C42" s="114" t="s">
+        <v>54</v>
+      </c>
       <c r="D42" s="10"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A43" s="1"/>
-      <c r="B43" s="2"/>
-      <c r="C43" s="10"/>
+      <c r="A43" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B43" s="2">
+        <v>2</v>
+      </c>
+      <c r="C43" s="114" t="s">
+        <v>56</v>
+      </c>
       <c r="D43" s="10"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A44" s="1"/>
-      <c r="B44" s="2"/>
-      <c r="C44" s="10"/>
+      <c r="A44" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B44" s="2">
+        <v>1</v>
+      </c>
+      <c r="C44" s="114" t="s">
+        <v>55</v>
+      </c>
       <c r="D44" s="10"/>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
@@ -5640,10 +5524,10 @@
       </c>
       <c r="B56" s="48">
         <f>SUM(B41:B55)</f>
-        <v>0</v>
-      </c>
-      <c r="C56" s="113" t="s">
-        <v>35</v>
+        <v>12</v>
+      </c>
+      <c r="C56" s="88" t="s">
+        <v>33</v>
       </c>
       <c r="D56" s="49"/>
     </row>
@@ -5683,15 +5567,27 @@
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" s="5"/>
-      <c r="B60" s="4"/>
-      <c r="C60" s="9"/>
+      <c r="A60" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B60" s="4">
+        <v>6</v>
+      </c>
+      <c r="C60" s="113" t="s">
+        <v>57</v>
+      </c>
       <c r="D60" s="9"/>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A61" s="1"/>
-      <c r="B61" s="2"/>
-      <c r="C61" s="10"/>
+      <c r="A61" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B61" s="2">
+        <v>6</v>
+      </c>
+      <c r="C61" s="114" t="s">
+        <v>58</v>
+      </c>
       <c r="D61" s="10"/>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
@@ -5778,10 +5674,10 @@
       </c>
       <c r="B75" s="48">
         <f>SUM(B60:B74)</f>
-        <v>0</v>
-      </c>
-      <c r="C75" s="113" t="s">
-        <v>35</v>
+        <v>12</v>
+      </c>
+      <c r="C75" s="88" t="s">
+        <v>33</v>
       </c>
       <c r="D75" s="49"/>
     </row>
@@ -5792,8 +5688,8 @@
       <c r="D76" s="50"/>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A77" s="112" t="s">
-        <v>36</v>
+      <c r="A77" s="89" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -5802,15 +5698,583 @@
       <formula1>0</formula1>
       <formula2>DureePeriode-1</formula2>
     </dataValidation>
-    <dataValidation type="whole" errorStyle="warning" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Durée en 1/3 de période" error="Le nombre doit être de type entier" sqref="F27:F34 B3:B17 B22:B36 B41:B55 B60:B74">
+    <dataValidation type="whole" errorStyle="warning" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Durée en 1/3 de période" error="Le nombre doit être de type entier" sqref="F27:F34 B60:B74 B22:B36 B41:B55 B3:B17">
       <formula1>0</formula1>
     </dataValidation>
     <dataValidation type="whole" errorStyle="warning" allowBlank="1" showErrorMessage="1" errorTitle="Dépassement de durée" error="Le nombre de minutes introduites dépasse la durée d'une période. Veuillez confirmer ... Le calcul du total sera juste dans tous les cas._x000a_" sqref="B18 B37 B56 B75">
       <formula1>0</formula1>
       <formula2>NbPerWeek * NbQuartPer</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A3:A17 A22:A36 A41:A55 A60:A74">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A60:A74 A22:A36 A41:A55 A3:A17">
       <formula1>lstTasks</formula1>
+    </dataValidation>
+  </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="D41" r:id="rId1" display="https://eduvaud.sharepoint.com/:i:/s/ETML_INF-GRP2A-23-24_Teams/EUOERJVrc4lLrK0VMrpF01YBRXPqZM24R1gqfefVdlEsbQ?e=ESwl8B"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <drawing r:id="rId3"/>
+  <legacyDrawing r:id="rId4"/>
+  <controls>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="39937" r:id="rId5" name="btnImportRealisation">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId6">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>590550</xdr:colOff>
+                <xdr:row>0</xdr:row>
+                <xdr:rowOff>180975</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>257175</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>152400</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="39937" r:id="rId5" name="btnImportRealisation"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+  </controls>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Feuil5"/>
+  <dimension ref="A1:I57"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="21.42578125" style="29" customWidth="1"/>
+    <col min="2" max="2" width="8.5703125" style="29" customWidth="1"/>
+    <col min="3" max="3" width="87" style="29" customWidth="1"/>
+    <col min="4" max="4" width="44.140625" style="29" customWidth="1"/>
+    <col min="5" max="16384" width="11.42578125" style="29"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="7">
+        <v>1</v>
+      </c>
+      <c r="C1" s="17"/>
+      <c r="D1" s="87"/>
+    </row>
+    <row r="2" spans="1:4" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="5"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+    </row>
+    <row r="4" spans="1:4" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="1"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+    </row>
+    <row r="5" spans="1:4" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+    </row>
+    <row r="6" spans="1:4" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="1"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+    </row>
+    <row r="7" spans="1:4" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="1"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+    </row>
+    <row r="8" spans="1:4" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="1"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+    </row>
+    <row r="9" spans="1:4" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+    </row>
+    <row r="10" spans="1:4" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
+    </row>
+    <row r="11" spans="1:4" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+    </row>
+    <row r="12" spans="1:4" s="53" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+    </row>
+    <row r="13" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" s="12">
+        <f>SUM(B3:B12)</f>
+        <v>0</v>
+      </c>
+      <c r="C13" s="90" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13" s="13"/>
+    </row>
+    <row r="14" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="14"/>
+      <c r="B14" s="14"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="14"/>
+    </row>
+    <row r="15" spans="1:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" s="7">
+        <v>2</v>
+      </c>
+      <c r="C15" s="17"/>
+      <c r="D15" s="87"/>
+    </row>
+    <row r="16" spans="1:4" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="5"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="1"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="1"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="20"/>
+      <c r="F19" s="20"/>
+      <c r="G19" s="20"/>
+      <c r="H19" s="20"/>
+      <c r="I19" s="20"/>
+    </row>
+    <row r="20" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="1"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="20"/>
+      <c r="F20" s="32"/>
+      <c r="G20" s="33"/>
+      <c r="H20" s="34"/>
+      <c r="I20" s="20"/>
+    </row>
+    <row r="21" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="A21" s="1"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="20"/>
+      <c r="F21" s="35"/>
+      <c r="G21" s="31"/>
+      <c r="H21" s="31"/>
+      <c r="I21" s="20"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="1"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="20"/>
+      <c r="F22" s="37"/>
+      <c r="G22" s="38"/>
+      <c r="H22" s="38"/>
+      <c r="I22" s="20"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="2"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="20"/>
+      <c r="F23" s="37"/>
+      <c r="G23" s="38"/>
+      <c r="H23" s="38"/>
+      <c r="I23" s="20"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="2"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="20"/>
+      <c r="F24" s="37"/>
+      <c r="G24" s="38"/>
+      <c r="H24" s="38"/>
+      <c r="I24" s="20"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="2"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="20"/>
+      <c r="F25" s="37"/>
+      <c r="G25" s="38"/>
+      <c r="H25" s="38"/>
+      <c r="I25" s="20"/>
+    </row>
+    <row r="26" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="3"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="11"/>
+      <c r="D26" s="11"/>
+      <c r="E26" s="20"/>
+      <c r="F26" s="37"/>
+      <c r="G26" s="38"/>
+      <c r="H26" s="38"/>
+      <c r="I26" s="20"/>
+    </row>
+    <row r="27" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B27" s="12">
+        <f>SUM(B17:B26)</f>
+        <v>0</v>
+      </c>
+      <c r="C27" s="90" t="s">
+        <v>33</v>
+      </c>
+      <c r="D27" s="13"/>
+      <c r="E27" s="20"/>
+      <c r="F27" s="37"/>
+      <c r="G27" s="38"/>
+      <c r="H27" s="38"/>
+      <c r="I27" s="20"/>
+    </row>
+    <row r="28" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="14"/>
+      <c r="B28" s="14"/>
+      <c r="C28" s="14"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="20"/>
+      <c r="F28" s="37"/>
+      <c r="G28" s="38"/>
+      <c r="H28" s="38"/>
+      <c r="I28" s="20"/>
+    </row>
+    <row r="29" spans="1:9" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B29" s="7">
+        <v>3</v>
+      </c>
+      <c r="C29" s="17"/>
+      <c r="D29" s="87"/>
+      <c r="E29" s="20"/>
+      <c r="F29" s="37"/>
+      <c r="G29" s="38"/>
+      <c r="H29" s="38"/>
+      <c r="I29" s="20"/>
+    </row>
+    <row r="30" spans="1:9" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B30" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D30" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E30" s="20"/>
+      <c r="F30" s="39"/>
+      <c r="G30" s="40"/>
+      <c r="H30" s="40"/>
+      <c r="I30" s="20"/>
+    </row>
+    <row r="31" spans="1:9" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="A31" s="5"/>
+      <c r="B31" s="4"/>
+      <c r="C31" s="9"/>
+      <c r="D31" s="9"/>
+      <c r="E31" s="20"/>
+      <c r="F31" s="41"/>
+      <c r="G31" s="41"/>
+      <c r="H31" s="41"/>
+      <c r="I31" s="20"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" s="1"/>
+      <c r="B32" s="2"/>
+      <c r="C32" s="10"/>
+      <c r="D32" s="10"/>
+      <c r="E32" s="20"/>
+      <c r="F32" s="20"/>
+      <c r="G32" s="20"/>
+      <c r="H32" s="20"/>
+      <c r="I32" s="20"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" s="1"/>
+      <c r="B33" s="2"/>
+      <c r="C33" s="10"/>
+      <c r="D33" s="10"/>
+      <c r="E33" s="20"/>
+      <c r="F33" s="20"/>
+      <c r="G33" s="20"/>
+      <c r="H33" s="20"/>
+      <c r="I33" s="20"/>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" s="1"/>
+      <c r="B34" s="2"/>
+      <c r="C34" s="10"/>
+      <c r="D34" s="10"/>
+      <c r="E34" s="20"/>
+      <c r="F34" s="20"/>
+      <c r="G34" s="20"/>
+      <c r="H34" s="20"/>
+      <c r="I34" s="20"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35" s="1"/>
+      <c r="B35" s="2"/>
+      <c r="C35" s="10"/>
+      <c r="D35" s="10"/>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36" s="1"/>
+      <c r="B36" s="2"/>
+      <c r="C36" s="10"/>
+      <c r="D36" s="10"/>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37" s="2"/>
+      <c r="B37" s="2"/>
+      <c r="C37" s="10"/>
+      <c r="D37" s="10"/>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38" s="2"/>
+      <c r="B38" s="2"/>
+      <c r="C38" s="10"/>
+      <c r="D38" s="10"/>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39" s="2"/>
+      <c r="B39" s="2"/>
+      <c r="C39" s="10"/>
+      <c r="D39" s="10"/>
+    </row>
+    <row r="40" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="3"/>
+      <c r="B40" s="3"/>
+      <c r="C40" s="11"/>
+      <c r="D40" s="11"/>
+    </row>
+    <row r="41" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B41" s="12">
+        <f>SUM(B31:B40)</f>
+        <v>0</v>
+      </c>
+      <c r="C41" s="90" t="s">
+        <v>33</v>
+      </c>
+      <c r="D41" s="13"/>
+    </row>
+    <row r="42" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="14"/>
+      <c r="B42" s="14"/>
+      <c r="C42" s="14"/>
+      <c r="D42" s="14"/>
+    </row>
+    <row r="43" spans="1:9" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B43" s="7">
+        <v>4</v>
+      </c>
+      <c r="C43" s="17"/>
+      <c r="D43" s="87"/>
+    </row>
+    <row r="44" spans="1:9" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B44" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="C44" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D44" s="8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A45" s="5"/>
+      <c r="B45" s="4"/>
+      <c r="C45" s="9"/>
+      <c r="D45" s="9"/>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A46" s="1"/>
+      <c r="B46" s="2"/>
+      <c r="C46" s="10"/>
+      <c r="D46" s="10"/>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A47" s="1"/>
+      <c r="B47" s="2"/>
+      <c r="C47" s="10"/>
+      <c r="D47" s="10"/>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A48" s="1"/>
+      <c r="B48" s="2"/>
+      <c r="C48" s="10"/>
+      <c r="D48" s="10"/>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" s="1"/>
+      <c r="B49" s="2"/>
+      <c r="C49" s="10"/>
+      <c r="D49" s="10"/>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" s="1"/>
+      <c r="B50" s="2"/>
+      <c r="C50" s="10"/>
+      <c r="D50" s="10"/>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" s="2"/>
+      <c r="B51" s="2"/>
+      <c r="C51" s="10"/>
+      <c r="D51" s="10"/>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" s="2"/>
+      <c r="B52" s="2"/>
+      <c r="C52" s="10"/>
+      <c r="D52" s="10"/>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" s="2"/>
+      <c r="B53" s="2"/>
+      <c r="C53" s="10"/>
+      <c r="D53" s="10"/>
+    </row>
+    <row r="54" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="3"/>
+      <c r="B54" s="3"/>
+      <c r="C54" s="11"/>
+      <c r="D54" s="11"/>
+    </row>
+    <row r="55" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B55" s="12">
+        <f>SUM(B45:B54)</f>
+        <v>0</v>
+      </c>
+      <c r="C55" s="90" t="s">
+        <v>33</v>
+      </c>
+      <c r="D55" s="13"/>
+    </row>
+    <row r="56" spans="1:4" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="A56" s="14"/>
+      <c r="B56" s="14"/>
+      <c r="C56" s="14"/>
+      <c r="D56" s="14"/>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" s="89" t="s">
+        <v>34</v>
+      </c>
+    </row>
+  </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" selectLockedCells="1"/>
+  <dataValidations count="4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A3:A12 A17:A26 A31:A40 A45:A54">
+      <formula1>lstTasks</formula1>
+    </dataValidation>
+    <dataValidation type="whole" errorStyle="warning" allowBlank="1" showErrorMessage="1" errorTitle="Dépassement de durée" error="Le nombre de minutes introduites dépasse la durée d'une période. Veuillez confirmer ... Le calcul du total sera juste dans tous les cas._x000a_" sqref="B13 B27 B41 B55">
+      <formula1>0</formula1>
+      <formula2>NbPerWeek * NbQuartPer</formula2>
+    </dataValidation>
+    <dataValidation type="whole" errorStyle="warning" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Durée en 1/3 de période" error="Le nombre doit être de type entier" sqref="B3:B12 F22:F29 B17:B26 B31:B40 B45:B54">
+      <formula1>0</formula1>
+    </dataValidation>
+    <dataValidation type="whole" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Dépassement de durée" error="Le nombre de minutes introduites dépasse la durée d'une période. Veuillez confirmer ... Le calcul du total sera juste dans tous les cas._x000a_" sqref="F30">
+      <formula1>0</formula1>
+      <formula2>DureePeriode-1</formula2>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5820,7 +6284,7 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="43009" r:id="rId4" name="btnImportRealisation">
+        <control shapeId="40961" r:id="rId4" name="btnImportPlanification">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
@@ -5840,7 +6304,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="43009" r:id="rId4" name="btnImportRealisation"/>
+        <control shapeId="40961" r:id="rId4" name="btnImportPlanification"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
